--- a/Marketing/clemson.roomme.xlsx
+++ b/Marketing/clemson.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B518"/>
+  <dimension ref="A1:B516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cameron18adams</t>
+          <t>mallorywebb_</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>emmabdusen</t>
+          <t>madd.yt3</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>j.white_9</t>
+          <t>beck.w.527</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>xbella.v</t>
+          <t>_krislynnbangs</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>iamjocejohnson</t>
+          <t>nathanielsmolen</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ibsenlise</t>
+          <t>nate_flury</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>farrah_dierk</t>
+          <t>dylan.harris10</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jmkaberry6</t>
+          <t>ella.graceee6</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sarahgracekizer</t>
+          <t>eli.terrell3</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>sambp99</t>
+          <t>samuelgoodroe</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ashtonstacks</t>
+          <t>alexa.lebron1</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>crystalblackwell</t>
+          <t>shavenderm1</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>colethomas67</t>
+          <t>catherine_hudsonn</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>edrdz121</t>
+          <t>peyconnolly</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>lelaxrush</t>
+          <t>marcosjr.24</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ethan_kreinbrink</t>
+          <t>brock_bird_</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>aleplus4</t>
+          <t>hannah.silveston</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>annieaustin124</t>
+          <t>izzy_cuozzo</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>meg.sheedy</t>
+          <t>emilycarroca</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>marenakraft</t>
+          <t>stellaself</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,4007 +648,4007 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>___katievaughn</t>
+          <t>madi.owen</t>
         </is>
       </c>
       <c r="B22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>eliza.hoff</t>
+          <t>jamesregan13</t>
         </is>
       </c>
       <c r="B23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>erk.stant</t>
+          <t>james_hammond24</t>
         </is>
       </c>
       <c r="B24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>wmklugh</t>
+          <t>ryliegrantt</t>
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>manloveheather</t>
+          <t>mak31405</t>
         </is>
       </c>
       <c r="B26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>kikiii.lynn</t>
+          <t>kas_gotklass</t>
         </is>
       </c>
       <c r="B27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>kay.manzella</t>
+          <t>kayleesyvone</t>
         </is>
       </c>
       <c r="B28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>mireille._.finley</t>
+          <t>_sarah_temple_</t>
         </is>
       </c>
       <c r="B29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pittsburgh.prime</t>
+          <t>havenfosterr</t>
         </is>
       </c>
       <c r="B30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>naw.brooks</t>
+          <t>green.liam_</t>
         </is>
       </c>
       <c r="B31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ellaa_heggie</t>
+          <t>marygraycox</t>
         </is>
       </c>
       <c r="B32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>avery.smith7</t>
+          <t>ryanhholtt</t>
         </is>
       </c>
       <c r="B33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>m.i.m.i.c__</t>
+          <t>josiah_macchi</t>
         </is>
       </c>
       <c r="B34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>wwangard11</t>
+          <t>hannahhhawk</t>
         </is>
       </c>
       <c r="B35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ellasyn.murphy</t>
+          <t>erk.stant</t>
         </is>
       </c>
       <c r="B36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>brooklynmacyy</t>
+          <t>gavinjames.12</t>
         </is>
       </c>
       <c r="B37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>stephaniesayegh1979</t>
+          <t>pey.hightower</t>
         </is>
       </c>
       <c r="B38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>leeannlednik</t>
+          <t>cheryl.mchugh.94</t>
         </is>
       </c>
       <c r="B39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>aeb1215</t>
+          <t>allisonhennelly</t>
         </is>
       </c>
       <c r="B40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vdellis7</t>
+          <t>ashleybalot</t>
         </is>
       </c>
       <c r="B41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>alfredo.g56</t>
+          <t>truland4</t>
         </is>
       </c>
       <c r="B42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>coleseitz120304</t>
+          <t>brooklynmacyy</t>
         </is>
       </c>
       <c r="B43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>beckysmith4801</t>
+          <t>jakecabral13</t>
         </is>
       </c>
       <c r="B44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ella.graceee6</t>
+          <t>jd_allen722</t>
         </is>
       </c>
       <c r="B45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ak.dutton</t>
+          <t>xander0124doe</t>
         </is>
       </c>
       <c r="B46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>theonlymarvin9</t>
+          <t>fred_williamson01</t>
         </is>
       </c>
       <c r="B47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>livchristensennn</t>
+          <t>violet_c_05</t>
         </is>
       </c>
       <c r="B48" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>chloe_sipe</t>
+          <t>naw.brooks</t>
         </is>
       </c>
       <c r="B49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>katiefitkin</t>
+          <t>elizabethamartineau</t>
         </is>
       </c>
       <c r="B50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>kateruanee</t>
+          <t>kendall.mccabe</t>
         </is>
       </c>
       <c r="B51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>swishyant.5</t>
+          <t>gaultneydona</t>
         </is>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sophiatownerr</t>
+          <t>kimsivore</t>
         </is>
       </c>
       <c r="B53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>chaysej.11</t>
+          <t>hamptonstutts</t>
         </is>
       </c>
       <c r="B54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>gracemalart6</t>
+          <t>kmb201415</t>
         </is>
       </c>
       <c r="B55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>skylarsmith844</t>
+          <t>angelrvvra</t>
         </is>
       </c>
       <c r="B56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>hannah.silveston</t>
+          <t>mackenzie.murphyyy</t>
         </is>
       </c>
       <c r="B57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>_haleylister_</t>
+          <t>1ucas.martin</t>
         </is>
       </c>
       <c r="B58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>sophia_rizzitello</t>
+          <t>noellemclane_</t>
         </is>
       </c>
       <c r="B59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>_amariitjett</t>
+          <t>conrock_04</t>
         </is>
       </c>
       <c r="B60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>hannahmaeu_</t>
+          <t>realjacobcitron</t>
         </is>
       </c>
       <c r="B61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ginapwilliams4444</t>
+          <t>julianbauer__</t>
         </is>
       </c>
       <c r="B62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>kaylynn.stokes</t>
+          <t>casey.janee</t>
         </is>
       </c>
       <c r="B63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ashley.lamberti_</t>
+          <t>brittonseay</t>
         </is>
       </c>
       <c r="B64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>abby_mesick</t>
+          <t>stunna4drill</t>
         </is>
       </c>
       <c r="B65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>_annagraceelizabeth</t>
+          <t>cam_slavin</t>
         </is>
       </c>
       <c r="B66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>megan.checola</t>
+          <t>hannahejurgens</t>
         </is>
       </c>
       <c r="B67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mollehjandro</t>
+          <t>lassdepoy67</t>
         </is>
       </c>
       <c r="B68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>pachecolorrie</t>
+          <t>madisonberbigler</t>
         </is>
       </c>
       <c r="B69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>jenniferfallon2</t>
+          <t>savannahnorris.1</t>
         </is>
       </c>
       <c r="B70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>isabella.snell</t>
+          <t>evagallagherr</t>
         </is>
       </c>
       <c r="B71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>zeenat.sabusa</t>
+          <t>reagannelson._</t>
         </is>
       </c>
       <c r="B72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>oliviacullum</t>
+          <t>brendan_j_s</t>
         </is>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>lassdepoy67</t>
+          <t>_haleylister_</t>
         </is>
       </c>
       <c r="B74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>kensleyparker_</t>
+          <t>emmaevanss23</t>
         </is>
       </c>
       <c r="B75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ry_burke_</t>
+          <t>marcella_hill</t>
         </is>
       </c>
       <c r="B76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>hcmeyer05</t>
+          <t>ryancorey7</t>
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>jason.vvs_</t>
+          <t>mary.megan.hardwick</t>
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>padgemodo</t>
+          <t>kat_odeen</t>
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>jd_sutterlin</t>
+          <t>_.sarahmadden._</t>
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>lilyyobenauer</t>
+          <t>elisabethquirbach</t>
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>_juliewheeler</t>
+          <t>cameron18adams</t>
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>lolavlopezz</t>
+          <t>eiearly.18</t>
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>_oliviaburchell</t>
+          <t>chance.fitzgeraldd</t>
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ashleyrose_2184</t>
+          <t>kgbaxter05</t>
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>27whitneyr08</t>
+          <t>katiejo.byars</t>
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>cunurse</t>
+          <t>gracemalart6</t>
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>mossburgak1</t>
+          <t>awwboyy</t>
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>dani.b467</t>
+          <t>rileyconan</t>
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>peyconnolly</t>
+          <t>zackwillso</t>
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>kinsleywarfle</t>
+          <t>andrewlama12</t>
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>patr1ck.allen</t>
+          <t>eliza_dargan1</t>
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>myadawson1501</t>
+          <t>hannah__rowe_</t>
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>erin.watsonn_</t>
+          <t>bcuff5</t>
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>beia.stamato</t>
+          <t>vanpiercy3</t>
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>emznem25</t>
+          <t>jd_sutterlin</t>
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>eliza.holmess</t>
+          <t>emilys_art4life</t>
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>_parker_millen_</t>
+          <t>jenniferfallon2</t>
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>emma.dicioccio</t>
+          <t>bri_burr123</t>
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>emilys_art4life</t>
+          <t>wyattshiltz</t>
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>meg_nolen</t>
+          <t>sofia_dom_</t>
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>markt.6</t>
+          <t>lizamorriss</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>brody.mccauley</t>
+          <t>lannjamess</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>emilyroach05</t>
+          <t>derek.burke1</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>alygibson_</t>
+          <t>colethomas67</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>aaliann_a</t>
+          <t>mossburgak1</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>momz_transportation_</t>
+          <t>rees.1989</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>therealgabbyrose</t>
+          <t>lander.roseann</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>_riley_cotton_</t>
+          <t>vmillernj</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>_quinngoddard17</t>
+          <t>sarahgracekizer</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>cam_slavin</t>
+          <t>ty1er_cha5e</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>mbschott</t>
+          <t>karsyn.kramer</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ellabonney_</t>
+          <t>emmahobbs_</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>christopher_vizzina</t>
+          <t>_amariitjett</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>briannaasaladino</t>
+          <t>scott_grams</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>cyaanky</t>
+          <t>mx.dessy</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>emilyarichards</t>
+          <t>andrewmoise226</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>casey.janee</t>
+          <t>kimberlyymorsee</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>its.alyviaa</t>
+          <t>flylikemicah</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>drewjensen5</t>
+          <t>k.a.yyy_</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>camreiland2</t>
+          <t>jason.vvs_</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>flofem28</t>
+          <t>clemson_cfb_247</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>victoria_langlo</t>
+          <t>marenakraft</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>janicebeed54</t>
+          <t>carol.llambert</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>glusk28</t>
+          <t>chloe.gibson3</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>suzokiart</t>
+          <t>matt.crowley_</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>caseygwyer</t>
+          <t>lily.manlove</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>lauraraniwood</t>
+          <t>nwg0718</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>tl99miller</t>
+          <t>carsonaugie29</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>caraboowwest</t>
+          <t>tinatash8</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>paul.duncan88</t>
+          <t>ellamimms_</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>rmwatso</t>
+          <t>farris.dak</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>korey.simple</t>
+          <t>clemsonsummerco27</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>mccraesr</t>
+          <t>_iamalyson_</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ella_brynn1</t>
+          <t>kinsleywarfle</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>clemson.tigerz2023</t>
+          <t>sammysirover</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ssamweiss</t>
+          <t>louiebertrani</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>mx.dessy</t>
+          <t>dr.d_hhiam</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>jocelyn23466</t>
+          <t>padgemodo</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>zmxrie</t>
+          <t>kristasurp_05</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>mia_bolin</t>
+          <t>elizabeth_552</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>chriang14_</t>
+          <t>_blakebiggs_</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>sydneyyhumphreys</t>
+          <t>brody.mccauley</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>santaclara2029</t>
+          <t>oliviacullum</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>cards2colleg3</t>
+          <t>_nicoleyra</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>johannacal</t>
+          <t>_luciamanrique_</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>katie.mills22</t>
+          <t>sarahxcarlson</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>christian_hausmann11</t>
+          <t>haylee._scott</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ansley.reagan</t>
+          <t>xachary.sc</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>shelbyshugars</t>
+          <t>jmkaberry6</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>taryn_grozio</t>
+          <t>msandman_04</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>curls_olivia</t>
+          <t>jusgray77</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>_ella_warren_</t>
+          <t>amelia_c.z</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>cm1234567890123</t>
+          <t>taylorkommor</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>kcbythesea123</t>
+          <t>cooperwilson12</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>lilycjacobs</t>
+          <t>madelinemccrae</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>david_cate4</t>
+          <t>austin._.mcquire</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>rylee.johnson11</t>
+          <t>lexi_layland</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>addie.j.johnson</t>
+          <t>___katievaughn</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>karsyn.kramer</t>
+          <t>tony_maguire_</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>miggy.gray</t>
+          <t>ellaarosenorriss</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>jordanncolombo</t>
+          <t>juliannalewandowski</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>cetta_fusco</t>
+          <t>lil._.sira</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>will.baker.27</t>
+          <t>co_nnor6238</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>julia.jasmanta</t>
+          <t>xbella.v</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>max_lauer9</t>
+          <t>alexa.tuller</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ethan_donehue</t>
+          <t>maggie.lubel</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>lcastro5813</t>
+          <t>sydneyyhumphreys</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>sarahz054</t>
+          <t>kalebhyatt22</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>bcuff5</t>
+          <t>shelbyshugars</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>the_elenaburks</t>
+          <t>masona_atwood</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>addisyn_ball</t>
+          <t>jennabruno_</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>riley_giordano</t>
+          <t>tyler.dorsey</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>co_nnor6238</t>
+          <t>knoxsumner</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>mia.shek</t>
+          <t>charlielynn42</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>toritrevinoo</t>
+          <t>sarrah.collins</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>iann_lau</t>
+          <t>noahellis05</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>itsjosephwesner</t>
+          <t>em.ilycarey</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>logan.gilbert999</t>
+          <t>im_big_tim</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>melbytheshore</t>
+          <t>averybaumgartner</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>connor_babb_</t>
+          <t>eisnertess</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>madisondelvalle</t>
+          <t>envy.calaa</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>emaleemann</t>
+          <t>jdcapo17</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>kkerber14</t>
+          <t>davisonaudrey_</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>kimsivore</t>
+          <t>madisonlatrell</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>annagibbsss</t>
+          <t>41hill</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>willgaardner</t>
+          <t>maggiecolvinn</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>zoeyfrench</t>
+          <t>jlewis.4</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>cgemme4821</t>
+          <t>reilly_reardon165</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>owen_merwarth</t>
+          <t>alexwriv8</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>tanishka.arcot5</t>
+          <t>shreyyparikh</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>abbyy.correia</t>
+          <t>wroumillat1</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>julietmorze</t>
+          <t>f.a.anderson87</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>shreyyparikh</t>
+          <t>aleplus4</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>maddiespeizman</t>
+          <t>katie.cooperr</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>jackcookk</t>
+          <t>ashleyrose_2184</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>izz.tumey</t>
+          <t>alyssapacheco</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>msmith.7</t>
+          <t>brooke.lunderville</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>lizzylaw16</t>
+          <t>patr1ck.allen</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>vanpiercy3</t>
+          <t>alanhernandy</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>hannah.osborne11</t>
+          <t>kris.koen.7</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>___a.diana___</t>
+          <t>ellaaajoness</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>katiem555</t>
+          <t>sooquinn7</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>grayson_housley</t>
+          <t>jmason.17</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>sophie_g715</t>
+          <t>noblerone04</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>lillia.thomson</t>
+          <t>camrynsnyder7</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>kylie.avitabile</t>
+          <t>sethwates</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>frankrob904</t>
+          <t>savannahpleasantt</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>katiechacharone</t>
+          <t>iamthemilkmango_</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>_bella.hogie</t>
+          <t>abbeynichole_</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>manuelpilaguano558</t>
+          <t>cadencolangelo</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>sadwf__</t>
+          <t>avafowler_</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>geoffrey.woodward</t>
+          <t>helen_johnsonnn</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>ryliegrantt</t>
+          <t>jackhaughey27</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>kierston_pace</t>
+          <t>miajohnst0n</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>ava.albachiaro</t>
+          <t>christopher_vizzina</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>jmason.17</t>
+          <t>melisssakaminski</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>k.a.yyy_</t>
+          <t>bobgriffin575</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>nataliasimonee</t>
+          <t>sydneyboss_</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>sydriggins</t>
+          <t>maliaa.jewel</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>_camshel</t>
+          <t>sammoore18</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>jules_carmello</t>
+          <t>ethan_kreinbrink</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>emilycameronnix</t>
+          <t>sabrina.luvr</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>molly.ann.harris</t>
+          <t>pepi.eg</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>annabelle.esquivel</t>
+          <t>jillluckey</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>nolansevillano</t>
+          <t>luckeykate_05</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>debdebsc</t>
+          <t>madison.branham</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>klippmom</t>
+          <t>lisa.bigler</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>nevets.lleud</t>
+          <t>meah.garcia</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>katherine.w10</t>
+          <t>abby.sanches19</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>tara.a31</t>
+          <t>niyyaa.nasha3</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>vintageclemsonco</t>
+          <t>kimipapagjika</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>cheryl.mchugh.94</t>
+          <t>tylerr.traviss</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>chloe.shoultz18</t>
+          <t>gavindrinane</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>parkerlowe63</t>
+          <t>brennan.s.h</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>mati_cox</t>
+          <t>cgemme4821</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>camalexaaa</t>
+          <t>nate.smith.8</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>jc.__.basqui</t>
+          <t>livchristensennn</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>maddy.vin</t>
+          <t>brooklyn.easler</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>checkers_noah</t>
+          <t>_harrisonwimberly_</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>saraconkling_</t>
+          <t>ellasyn.murphy</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>carolinewoodberry</t>
+          <t>isabellavbrookhart</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>fish_sassi</t>
+          <t>geoffrey.woodward</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>cooper_schell</t>
+          <t>aeb1215</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>jayla.kg</t>
+          <t>miaobenson</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>bradenquinby</t>
+          <t>josh_cahill_</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>lucasveenstra</t>
+          <t>alysa_stigall</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>noblerone04</t>
+          <t>dorothystein_</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>nate.smith.8</t>
+          <t>macey_wilkins</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>nwg0718</t>
+          <t>sawyer_brinson_5</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>annaberezansky</t>
+          <t>keenan_the_domino</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>c_mac_0712</t>
+          <t>katie.mills22</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>bryce_baker05</t>
+          <t>keelyhagan</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>sydalexx_</t>
+          <t>theoneclemson</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>uberqueensc</t>
+          <t>poppydeluz</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>lane_a_</t>
+          <t>kay.manzella</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>jennaajoyner</t>
+          <t>zbtclemson</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>linda_29129</t>
+          <t>laurenn.grant</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>jack_forrestt</t>
+          <t>iamjudithcooke</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>goeddeholly</t>
+          <t>kenneth_holland1</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>katelyn_leiter</t>
+          <t>eddie_smore18</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>skylarlevitt</t>
+          <t>farrah_dierk</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>syblack9678</t>
+          <t>maryalessio_</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>preston_miles2</t>
+          <t>tylerhoward___</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>aava.boyle</t>
+          <t>mg_boggs</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>derek.burke1</t>
+          <t>priyal11_</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>jeriruss09</t>
+          <t>cperron023</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>chamu.04</t>
+          <t>macipellegrino</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>taylor.scelfo</t>
+          <t>lucaconrey</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>jack__casey2</t>
+          <t>romangilliatt</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>emilyrianee</t>
+          <t>parkerbeeks</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>liam.cheers</t>
+          <t>hannahnoe_</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>alexwriv8</t>
+          <t>ssamweiss</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>lander.roseann</t>
+          <t>hannahlecroyy</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>katienunnelley</t>
+          <t>n_lawhorn24</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>keelangray_</t>
+          <t>averykilburn</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>thatdudevez</t>
+          <t>megan.checola</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>mallorywebb_</t>
+          <t>meredith.vajdos</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>ecoward7</t>
+          <t>rileyobleness</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>jared_trindel</t>
+          <t>keelee_harrison</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>aezizh_</t>
+          <t>_eddiedunlap_</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>conrock_04</t>
+          <t>carachecchio</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>elise.furbush</t>
+          <t>avalawson_</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ky_alyssa23</t>
+          <t>_adriannacrespo</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>bigoreinhardt</t>
+          <t>tay___04</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>gina.bertotti</t>
+          <t>lcastro5813</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>charliesandgran</t>
+          <t>lydiaparton_</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>prestonblubaugh</t>
+          <t>jennaajoyner</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>wtminiard</t>
+          <t>abby_mesick</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>joleemulik</t>
+          <t>sophiatownerr</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>maggie.lubel</t>
+          <t>michaelcohen04</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>ethant_28</t>
+          <t>wyattlangford_17</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>josiah_macchi</t>
+          <t>dani.b467</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>elizabeth991599</t>
+          <t>mckennaamcmahan</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>mary.megan.hardwick</t>
+          <t>kikiii.lynn</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>_catalinazamora_</t>
+          <t>_erin.reilly_</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>stubblefieldjohanna</t>
+          <t>haleighherch</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>sarahnoelblake</t>
+          <t>melbytheshore</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>aminaaboyd</t>
+          <t>maggie.valdes</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>alissaannderson</t>
+          <t>ew_jourdan23</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>parkertisdale</t>
+          <t>kellen.gbach</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>e.m.r05</t>
+          <t>clemsonfb7</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>taliyahafshar</t>
+          <t>michelbassily_</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>markanthonyponce</t>
+          <t>co0per_d</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ella_knee928</t>
+          <t>nickcashion81</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>isabelladigrigoli</t>
+          <t>jose.vs05</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>uhm_logan</t>
+          <t>avery.smith7</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>trisharue_</t>
+          <t>z6ckk</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>holly10m_</t>
+          <t>vdellis7</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>veganmady</t>
+          <t>douglascolandrea</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>sophia.bohm</t>
+          <t>thatdudevez</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>lannjamess</t>
+          <t>jwellmon18</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>esu_2028</t>
+          <t>eugrob</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>mckenna_gildon</t>
+          <t>annieaustin124</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>madeline.griffinn</t>
+          <t>shelby.wallace19</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>bricewhitehouse</t>
+          <t>ginapwilliams4444</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>flylikemicah</t>
+          <t>mia_bolin</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>jillluckey</t>
+          <t>drewsullivan22</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>soccer_dad44</t>
+          <t>tunstallmarsha</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>marjlather</t>
+          <t>kinsley_robertsss</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>hannah__rowe_</t>
+          <t>addie.j.johnson</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>ethankendall_04</t>
+          <t>julietmorze</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>sam_walters29</t>
+          <t>wmklugh</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ezekielholden_</t>
+          <t>carolinewoodberry</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>rileykandres</t>
+          <t>luke_gellar</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>_sarah_temple_</t>
+          <t>izzy_ellison</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>yamilepaniaguaa</t>
+          <t>kenz_haley</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>ashstanton23</t>
+          <t>bigoreinhardt</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>doyersarah</t>
+          <t>jennadoyerr</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>iamjudithcooke</t>
+          <t>hcmeyer05</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>carol.llambert</t>
+          <t>sean_lindner</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>veronica.rey17</t>
+          <t>walkersarah29</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>asiawilliamsss</t>
+          <t>adam._karen</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>autumnej05</t>
+          <t>emma.dicioccio</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>gaea.adams</t>
+          <t>shariff.murphy</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>ryancorey7</t>
+          <t>kierabuckley8</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>chloe.gibson3</t>
+          <t>skylarsmith844</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>rykerrhodes23_3__00</t>
+          <t>elise.furbush</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>kchandgie</t>
+          <t>bronwen__via</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>mahalacannon</t>
+          <t>hannahhgrene</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>james.stewart1517</t>
+          <t>bellaaa_nebel</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>c.muschick</t>
+          <t>swishyant.5</t>
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>jdsummerford</t>
+          <t>pittsburgh.prime</t>
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ellaarosenorriss</t>
+          <t>the_elenaburks</t>
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>angelo.pochiro_</t>
+          <t>london.cooper4</t>
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>bathroom_jesus_69</t>
+          <t>nandini__mittal_</t>
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>shelby_lind_12</t>
+          <t>cole__geary</t>
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>bencourcoux110</t>
+          <t>shea.dempsey</t>
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>zillywillyyy</t>
+          <t>nolansevillano</t>
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>jacob.n.robinson</t>
+          <t>asherconrey</t>
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>willj843</t>
+          <t>finley_gray9</t>
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>camdyn.douglas</t>
+          <t>jimmy_hockey67</t>
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>kyra.bollingerr</t>
+          <t>brooklynmlee_</t>
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>gavinjames.12</t>
+          <t>ecoward7</t>
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>macyosborne14</t>
+          <t>michaelabline</t>
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>agparnell_29</t>
+          <t>ellie.zito</t>
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>hammondwrenn7</t>
+          <t>emilyroach05</t>
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>sheri.henderson_</t>
+          <t>zacwol</t>
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>clemsonchristy</t>
+          <t>hammondwrenn7</t>
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>hughes.ha</t>
+          <t>noah_s550</t>
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>keelyhagan</t>
+          <t>lanaj_</t>
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>rylee_coffman</t>
+          <t>addisyn_ball</t>
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>clark_jenkins</t>
+          <t>robert_rengifo_</t>
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>_krislynnbangs</t>
+          <t>_reillyguy</t>
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>louise.shiner</t>
+          <t>rayhoman1</t>
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>iamthemilkmango_</t>
+          <t>heyheyitsmaddiej</t>
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>tired._.lo</t>
+          <t>angel_magana_alfaro</t>
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>vargasb0</t>
+          <t>eduarda_alm03</t>
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>annav326</t>
+          <t>_oliviaburchell</t>
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>sommer.unzicker</t>
+          <t>ayden_sufka</t>
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>jill8765</t>
+          <t>meg_nolen</t>
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>finestkind15</t>
+          <t>rockett_will</t>
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>sammy_rivero</t>
+          <t>ellanuccetelli</t>
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>e_cabbage2</t>
+          <t>corinnebradford_</t>
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>avaa_savino</t>
+          <t>caraboowwest</t>
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>alysa_stigall</t>
+          <t>___a.diana___</t>
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>abbey.g.p</t>
+          <t>_jonas47</t>
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>lizzienewbold</t>
+          <t>molly.ann.harris</t>
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>juderiordan25</t>
+          <t>zoeyfrench</t>
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>ava.biggins</t>
+          <t>hannahmaeu_</t>
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>kenziegallup</t>
+          <t>hamza49us</t>
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>nicholasgarcia25</t>
+          <t>krishh.patelll</t>
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>darlyn.estrada.1203</t>
+          <t>briannaasaladino</t>
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>judestilwell</t>
+          <t>emmy_ulmer04</t>
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>annahartt_</t>
+          <t>cohenn_l</t>
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>cassidyrager</t>
+          <t>riley_giordano</t>
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>laurenn.owens</t>
+          <t>lelaxrush</t>
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>wyattshiltz</t>
+          <t>kyra.bollingerr</t>
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>garytw1978</t>
+          <t>tystanford1</t>
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>elizawbyrd</t>
+          <t>jncole10</t>
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>peterabline</t>
+          <t>connoroneil14</t>
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>eugrob</t>
+          <t>logan.gilbert999</t>
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>rhyansawlivich</t>
+          <t>chaysej.11</t>
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>brennan.s.h</t>
+          <t>ardendelbueno</t>
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>ravenjohn52</t>
+          <t>sally_goetz</t>
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>melodyelizabeth15</t>
+          <t>isabelleterracciano</t>
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>alexa.lebron1</t>
+          <t>mackenzieewoodd</t>
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>_mckaylaelizabeth_</t>
+          <t>jasejones72</t>
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>md.lashista</t>
+          <t>ellaa_heggie</t>
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>isabelleeeee.n</t>
+          <t>parkerlowe63</t>
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>themisunkelley</t>
+          <t>brendan.erickson11</t>
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>bri_mcabee</t>
+          <t>sophia___wood</t>
         </is>
       </c>
       <c r="B402" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>wyattgeitner</t>
+          <t>maggieblum_</t>
         </is>
       </c>
       <c r="B403" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>breniyahh_</t>
+          <t>kennyy3k</t>
         </is>
       </c>
       <c r="B404" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>rhea.lay</t>
+          <t>thatgirl.someone</t>
         </is>
       </c>
       <c r="B405" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>haylee._scott</t>
+          <t>laceyedwardsss</t>
         </is>
       </c>
       <c r="B406" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>madeline_k12</t>
+          <t>taryn_grozio</t>
         </is>
       </c>
       <c r="B407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>sadiemims_</t>
+          <t>ak.dutton</t>
         </is>
       </c>
       <c r="B408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>keelee_harrison</t>
+          <t>savannahg523</t>
         </is>
       </c>
       <c r="B409" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>jackhill_16</t>
+          <t>jonn.yoo</t>
         </is>
       </c>
       <c r="B410" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>taylorbrown0002</t>
+          <t>kateruanee</t>
         </is>
       </c>
       <c r="B411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>giannaang</t>
+          <t>lilly_8805</t>
         </is>
       </c>
       <c r="B412" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>8x.ryan</t>
+          <t>elliotleatherberry</t>
         </is>
       </c>
       <c r="B413" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>laurenn.grant</t>
+          <t>clemson.sammy</t>
         </is>
       </c>
       <c r="B414" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>michaelabline</t>
+          <t>briandemps</t>
         </is>
       </c>
       <c r="B415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>carlito__jones</t>
+          <t>jacobschosser</t>
         </is>
       </c>
       <c r="B416" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>greenhorizons.lawn</t>
+          <t>emmacohen02</t>
         </is>
       </c>
       <c r="B417" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>allisonhennelly</t>
+          <t>mckenna_gildon</t>
         </is>
       </c>
       <c r="B418" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>cashmxney.ag</t>
+          <t>_juliewheeler</t>
         </is>
       </c>
       <c r="B419" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ton.y68</t>
+          <t>katiechacharone</t>
         </is>
       </c>
       <c r="B420" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>shea.dempsey</t>
+          <t>esu_2028</t>
         </is>
       </c>
       <c r="B421" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>benjaminhughes630</t>
+          <t>lucca.jimenez</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>tpvanhoy</t>
+          <t>ethankendall_04</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>becca020305</t>
+          <t>tessaraccio</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>julianagiachetti</t>
+          <t>bella.maddox</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>alanhernandy</t>
+          <t>mattieanajack</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>gaultneydona</t>
+          <t>ava.pasalich</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>megan.lougher</t>
+          <t>sydneyjacobs__</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>jakebolig</t>
+          <t>camreiland2</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>jonestyson</t>
+          <t>s.samantha_8</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>lolarbenavente</t>
+          <t>santaclara2029</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>cadencolangelo</t>
+          <t>_rileyelizabethh</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>lisae.843</t>
+          <t>_luketringali</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>brooke.knightt</t>
+          <t>alyssa.laurino</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>dknorek1</t>
+          <t>aeric_wender</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>rhyenp</t>
+          <t>alex.ercolino</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>1tz.j0rdan</t>
+          <t>edrdz121</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>kosireed</t>
+          <t>graysonrichmond_</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>nevaeh.paradis</t>
+          <t>ediekelsey2023</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>hannah.h219</t>
+          <t>crystalblackwell</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>maryalessio_</t>
+          <t>annacylkowski</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>tessaraccio</t>
+          <t>chloe_sipe</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>david.martignetti.1</t>
+          <t>peterabline</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>xander412doe</t>
+          <t>w_joyner04</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>bellaw_628</t>
+          <t>nataliasimonee</t>
         </is>
       </c>
       <c r="B445" t="b">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>clemsonbcm</t>
+          <t>rileymakana</t>
         </is>
       </c>
       <c r="B446" t="b">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>jwmorton16</t>
+          <t>57hodgson</t>
         </is>
       </c>
       <c r="B447" t="b">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>trudysmithh</t>
+          <t>emznem25</t>
         </is>
       </c>
       <c r="B448" t="b">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>cjewel04</t>
+          <t>kayleigh_doerflein</t>
         </is>
       </c>
       <c r="B449" t="b">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>jd_allen722</t>
+          <t>ethan_donehue</t>
         </is>
       </c>
       <c r="B450" t="b">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>kelsiewotton</t>
+          <t>ashley.lamberti_</t>
         </is>
       </c>
       <c r="B451" t="b">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>izzy__864</t>
+          <t>reesemelton_</t>
         </is>
       </c>
       <c r="B452" t="b">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>nyalaburke</t>
+          <t>connor_babb_</t>
         </is>
       </c>
       <c r="B453" t="b">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>caroline_robi23</t>
+          <t>_.kendall_hallman._</t>
         </is>
       </c>
       <c r="B454" t="b">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>hannahgifford._</t>
+          <t>sivore</t>
         </is>
       </c>
       <c r="B455" t="b">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>rwhalenn</t>
+          <t>suzokiart</t>
         </is>
       </c>
       <c r="B456" t="b">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>sabrina.luvr</t>
+          <t>benjaminhughes630</t>
         </is>
       </c>
       <c r="B457" t="b">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>kgbaxter05</t>
+          <t>nevaeh.paradis</t>
         </is>
       </c>
       <c r="B458" t="b">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>charliegirlnc</t>
+          <t>reagankeys</t>
         </is>
       </c>
       <c r="B459" t="b">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>sarahrubinski</t>
+          <t>sufka_yl_oils</t>
         </is>
       </c>
       <c r="B460" t="b">
@@ -5038,7 +5038,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>rachelfoyy</t>
+          <t>victoria_lamendola</t>
         </is>
       </c>
       <c r="B461" t="b">
@@ -5048,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>hamptonstutts</t>
+          <t>liv.jade</t>
         </is>
       </c>
       <c r="B462" t="b">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>bellacdawson</t>
+          <t>carsonkessler_</t>
         </is>
       </c>
       <c r="B463" t="b">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>reaganquillo</t>
+          <t>presleysparks_</t>
         </is>
       </c>
       <c r="B464" t="b">
@@ -5078,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>josephadams_6104</t>
+          <t>alfredo.g56</t>
         </is>
       </c>
       <c r="B465" t="b">
@@ -5088,7 +5088,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>jonlucacav4</t>
+          <t>kaykay_herrman</t>
         </is>
       </c>
       <c r="B466" t="b">
@@ -5098,7 +5098,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>chet_conn</t>
+          <t>ameliamcintiree</t>
         </is>
       </c>
       <c r="B467" t="b">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>kaykay_herrman</t>
+          <t>laurenn.owens</t>
         </is>
       </c>
       <c r="B468" t="b">
@@ -5118,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ellanuccetelli</t>
+          <t>ibsenlise</t>
         </is>
       </c>
       <c r="B469" t="b">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>rileyj0518</t>
+          <t>jack_forrestt</t>
         </is>
       </c>
       <c r="B470" t="b">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>kennedywagner1227</t>
+          <t>charlotte_moylan1</t>
         </is>
       </c>
       <c r="B471" t="b">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>mikenna_stacy</t>
+          <t>carolineewilkinson</t>
         </is>
       </c>
       <c r="B472" t="b">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>lashaun.scott</t>
+          <t>reaganquillo</t>
         </is>
       </c>
       <c r="B473" t="b">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>lexhoff23</t>
+          <t>elizasavannah</t>
         </is>
       </c>
       <c r="B474" t="b">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>brenan.palazzolo</t>
+          <t>ishika_loomba</t>
         </is>
       </c>
       <c r="B475" t="b">
@@ -5188,7 +5188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>hjs4505</t>
+          <t>nyalaburke</t>
         </is>
       </c>
       <c r="B476" t="b">
@@ -5198,7 +5198,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>carson_summey</t>
+          <t>j_sowle</t>
         </is>
       </c>
       <c r="B477" t="b">
@@ -5208,7 +5208,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>shaunawittt</t>
+          <t>itsjalil256</t>
         </is>
       </c>
       <c r="B478" t="b">
@@ -5218,7 +5218,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>kenziemorse</t>
+          <t>amelialbruyere</t>
         </is>
       </c>
       <c r="B479" t="b">
@@ -5228,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>kellygregoryyy</t>
+          <t>alecdiaz23</t>
         </is>
       </c>
       <c r="B480" t="b">
@@ -5238,7 +5238,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>clemson_tigers_rock</t>
+          <t>jessmanziak</t>
         </is>
       </c>
       <c r="B481" t="b">
@@ -5248,7 +5248,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>janelleeast_</t>
+          <t>isabelleeeee.n</t>
         </is>
       </c>
       <c r="B482" t="b">
@@ -5258,7 +5258,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>akmcunarwhal</t>
+          <t>shaunawittt</t>
         </is>
       </c>
       <c r="B483" t="b">
@@ -5268,7 +5268,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>madisyn_davis05</t>
+          <t>maeponeill</t>
         </is>
       </c>
       <c r="B484" t="b">
@@ -5278,7 +5278,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>rileyrob05</t>
+          <t>angelo.pochiro_</t>
         </is>
       </c>
       <c r="B485" t="b">
@@ -5288,7 +5288,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>matthewraucci</t>
+          <t>jackmurphy1_</t>
         </is>
       </c>
       <c r="B486" t="b">
@@ -5298,7 +5298,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>kelsea.anders</t>
+          <t>miggy.gray</t>
         </is>
       </c>
       <c r="B487" t="b">
@@ -5308,7 +5308,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>rileymakana</t>
+          <t>_parker_millen_</t>
         </is>
       </c>
       <c r="B488" t="b">
@@ -5318,7 +5318,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>emilycarroca</t>
+          <t>eliza.holmess</t>
         </is>
       </c>
       <c r="B489" t="b">
@@ -5328,7 +5328,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>sam.hellhoff</t>
+          <t>_mckaylaelizabeth_</t>
         </is>
       </c>
       <c r="B490" t="b">
@@ -5338,7 +5338,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>zbtclemson</t>
+          <t>erin.watsonn_</t>
         </is>
       </c>
       <c r="B491" t="b">
@@ -5348,7 +5348,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>laceyedwardsss</t>
+          <t>judestilwell</t>
         </is>
       </c>
       <c r="B492" t="b">
@@ -5358,7 +5358,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>carlyyreed</t>
+          <t>chamu.04</t>
         </is>
       </c>
       <c r="B493" t="b">
@@ -5368,7 +5368,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>savannahg523</t>
+          <t>jules.bono</t>
         </is>
       </c>
       <c r="B494" t="b">
@@ -5378,7 +5378,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>christinepinellalynn</t>
+          <t>_annagraceelizabeth</t>
         </is>
       </c>
       <c r="B495" t="b">
@@ -5388,7 +5388,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>clamponlite</t>
+          <t>rylee.johnson11</t>
         </is>
       </c>
       <c r="B496" t="b">
@@ -5398,7 +5398,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>brendan_j_s</t>
+          <t>lizzylaw16</t>
         </is>
       </c>
       <c r="B497" t="b">
@@ -5408,7 +5408,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>sean_conn77</t>
+          <t>sophia_rizzitello</t>
         </is>
       </c>
       <c r="B498" t="b">
@@ -5418,7 +5418,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>clemsonfb7</t>
+          <t>jordan_groff_</t>
         </is>
       </c>
       <c r="B499" t="b">
@@ -5428,7 +5428,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>lucia.kramerr</t>
+          <t>lilyrhodes7</t>
         </is>
       </c>
       <c r="B500" t="b">
@@ -5438,7 +5438,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>tunstallmarsha</t>
+          <t>kensleyparker_</t>
         </is>
       </c>
       <c r="B501" t="b">
@@ -5448,7 +5448,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>peyton_brazelle</t>
+          <t>cameronlorenz_</t>
         </is>
       </c>
       <c r="B502" t="b">
@@ -5458,7 +5458,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>im_big_tim</t>
+          <t>paul.maguire109</t>
         </is>
       </c>
       <c r="B503" t="b">
@@ -5468,7 +5468,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>_nazanin__mohseni_</t>
+          <t>jadenmahoney_</t>
         </is>
       </c>
       <c r="B504" t="b">
@@ -5478,7 +5478,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>cattouchard</t>
+          <t>megan.alyse.sharkey</t>
         </is>
       </c>
       <c r="B505" t="b">
@@ -5488,7 +5488,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>bswick15</t>
+          <t>savannahbrummett</t>
         </is>
       </c>
       <c r="B506" t="b">
@@ -5498,7 +5498,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>kyleethemom</t>
+          <t>will_mccu</t>
         </is>
       </c>
       <c r="B507" t="b">
@@ -5508,7 +5508,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>amjones005</t>
+          <t>paytonjmartin</t>
         </is>
       </c>
       <c r="B508" t="b">
@@ -5518,7 +5518,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>kinsley_robertsss</t>
+          <t>h_herbert16</t>
         </is>
       </c>
       <c r="B509" t="b">
@@ -5528,7 +5528,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>oliviamrobertson</t>
+          <t>stephaniesayegh1979</t>
         </is>
       </c>
       <c r="B510" t="b">
@@ -5538,7 +5538,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>ece_bucukoglu</t>
+          <t>drewecopeland</t>
         </is>
       </c>
       <c r="B511" t="b">
@@ -5548,7 +5548,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>rushchipsi</t>
+          <t>aalons08</t>
         </is>
       </c>
       <c r="B512" t="b">
@@ -5558,7 +5558,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>cadence.ann21</t>
+          <t>njm1969_</t>
         </is>
       </c>
       <c r="B513" t="b">
@@ -5568,7 +5568,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>catherine_hudsonn</t>
+          <t>kylie.avitabile</t>
         </is>
       </c>
       <c r="B514" t="b">
@@ -5578,7 +5578,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>lunazuniga_</t>
+          <t>emmasarina_</t>
         </is>
       </c>
       <c r="B515" t="b">
@@ -5588,30 +5588,10 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>daleag48</t>
+          <t>bri_mcabee</t>
         </is>
       </c>
       <c r="B516" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>dianedyeredmond</t>
-        </is>
-      </c>
-      <c r="B517" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>emmaleisten</t>
-        </is>
-      </c>
-      <c r="B518" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/clemson.roomme.xlsx
+++ b/Marketing/clemson.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B516"/>
+  <dimension ref="A1:B476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mallorywebb_</t>
+          <t>rileymakana</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>madd.yt3</t>
+          <t>rhyansawlivich</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>beck.w.527</t>
+          <t>jacobschosser</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>_krislynnbangs</t>
+          <t>kelsey_ragon</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>nathanielsmolen</t>
+          <t>msmith7404</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>nate_flury</t>
+          <t>xachary.sc</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dylan.harris10</t>
+          <t>emrenl2023</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ella.graceee6</t>
+          <t>katie_mueller05</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>eli.terrell3</t>
+          <t>sean_lindner</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>samuelgoodroe</t>
+          <t>lydiaparton_</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>alexa.lebron1</t>
+          <t>tylerhoward___</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>shavenderm1</t>
+          <t>michaelabline</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>catherine_hudsonn</t>
+          <t>briannaasaladino</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>peyconnolly</t>
+          <t>flylikemicah</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>marcosjr.24</t>
+          <t>michael_christian9</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>brock_bird_</t>
+          <t>vanpiercy3</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>hannah.silveston</t>
+          <t>rileyobleness</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>izzy_cuozzo</t>
+          <t>doyersarah</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>emilycarroca</t>
+          <t>wtminiard</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>stellaself</t>
+          <t>mahalacannon</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>madi.owen</t>
+          <t>pey.hightower</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>jamesregan13</t>
+          <t>josh_cahill_</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>james_hammond24</t>
+          <t>katie.mills22</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ryliegrantt</t>
+          <t>willgaardner</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mak31405</t>
+          <t>ak.dutton</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>kas_gotklass</t>
+          <t>___katievaughn</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>kayleesyvone</t>
+          <t>linda_29129</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>_sarah_temple_</t>
+          <t>jake_thompson1014</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>havenfosterr</t>
+          <t>_parker_millen_</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>green.liam_</t>
+          <t>izzy_cuozzo</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>marygraycox</t>
+          <t>annanorton_04</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ryanhholtt</t>
+          <t>8x.ryan</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>josiah_macchi</t>
+          <t>tessandtuck</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hannahhhawk</t>
+          <t>keelangray_</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>erk.stant</t>
+          <t>cunurse</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>gavinjames.12</t>
+          <t>lizamorriss</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pey.hightower</t>
+          <t>sammysirover</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>cheryl.mchugh.94</t>
+          <t>katiejo.byars</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>allisonhennelly</t>
+          <t>cam_slavin</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ashleybalot</t>
+          <t>will.baker.27</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>truland4</t>
+          <t>megan.alyse.sharkey</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>brooklynmacyy</t>
+          <t>jakecabral13</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>jakecabral13</t>
+          <t>clemson.tigerz2023</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>jd_allen722</t>
+          <t>ky_alyssa23</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>xander0124doe</t>
+          <t>michael_kirby09</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>fred_williamson01</t>
+          <t>coleseitz120304</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>violet_c_05</t>
+          <t>aleplus4</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>naw.brooks</t>
+          <t>ilovefriedchicken.20</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>elizabethamartineau</t>
+          <t>elizawbyrd</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>kendall.mccabe</t>
+          <t>elliotleatherberry</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>gaultneydona</t>
+          <t>lucaconrey</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>kimsivore</t>
+          <t>xander0124doe</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>hamptonstutts</t>
+          <t>aezizh_</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kmb201415</t>
+          <t>simplyspokencommunications</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>angelrvvra</t>
+          <t>mariacmonteiroo</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mackenzie.murphyyy</t>
+          <t>jackmurphy1_</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1ucas.martin</t>
+          <t>kayanealis</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>noellemclane_</t>
+          <t>lizzylaw16</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>conrock_04</t>
+          <t>msandman_04</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>realjacobcitron</t>
+          <t>mwills686</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>julianbauer__</t>
+          <t>jackhaughey27</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>casey.janee</t>
+          <t>tessaraccio</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>brittonseay</t>
+          <t>lucasbuonoo</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>stunna4drill</t>
+          <t>brycebernard1</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>cam_slavin</t>
+          <t>katiem555</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>hannahejurgens</t>
+          <t>taylor.scelfo</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>lassdepoy67</t>
+          <t>hughstonreagin</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>madisonberbigler</t>
+          <t>macyosborne14</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>savannahnorris.1</t>
+          <t>nolansevillano</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>evagallagherr</t>
+          <t>mia_bolin</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>reagannelson._</t>
+          <t>wilaminaharris</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>brendan_j_s</t>
+          <t>alexwriv8</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>_haleylister_</t>
+          <t>sydalexx_</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>emmaevanss23</t>
+          <t>ellie.zito</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>marcella_hill</t>
+          <t>elise.furbush</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ryancorey7</t>
+          <t>andrewlama12</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>mary.megan.hardwick</t>
+          <t>nataliasimonee</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>kat_odeen</t>
+          <t>madisonlatrell</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>_.sarahmadden._</t>
+          <t>grayson_housley</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>elisabethquirbach</t>
+          <t>sarahxcarlson</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>cameron18adams</t>
+          <t>anna.mikaylenn</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>eiearly.18</t>
+          <t>hannah_perky</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>chance.fitzgeraldd</t>
+          <t>adam._karen</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>kgbaxter05</t>
+          <t>chris.bryant17</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>katiejo.byars</t>
+          <t>sydneyboss_</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>gracemalart6</t>
+          <t>kayleesyvone</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>awwboyy</t>
+          <t>luvvvsaj</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>rileyconan</t>
+          <t>wyattshiltz</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>zackwillso</t>
+          <t>eliza_dargan1</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>andrewlama12</t>
+          <t>sophia.bohm</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>eliza_dargan1</t>
+          <t>emilycameronnix</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>hannah__rowe_</t>
+          <t>conrock_04</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bcuff5</t>
+          <t>sawyer_brinson_5</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>vanpiercy3</t>
+          <t>vmillernj</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>jd_sutterlin</t>
+          <t>eliza.ellett</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>emilys_art4life</t>
+          <t>clark_jenkins</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>jenniferfallon2</t>
+          <t>jimmy_hockey67</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>bri_burr123</t>
+          <t>darlyn.estrada.1203</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>wyattshiltz</t>
+          <t>k.a.yyy_</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>sofia_dom_</t>
+          <t>brendan_j_s</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,3207 +1448,3207 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>lizamorriss</t>
+          <t>t.homas.__</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>lannjamess</t>
+          <t>kris.koen.7</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>derek.burke1</t>
+          <t>haleighherch</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>colethomas67</t>
+          <t>iamjudithcooke</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>mossburgak1</t>
+          <t>_eddiedunlap_</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>rees.1989</t>
+          <t>reagan.porth</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>lander.roseann</t>
+          <t>ibsenlise</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>vmillernj</t>
+          <t>colethomas67</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>sarahgracekizer</t>
+          <t>_iamalyson_</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ty1er_cha5e</t>
+          <t>katherine.w10</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>karsyn.kramer</t>
+          <t>_ella_warren_</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>emmahobbs_</t>
+          <t>zbtclemson</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>_amariitjett</t>
+          <t>isabelleterracciano</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>scott_grams</t>
+          <t>ryan_murray23</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>mx.dessy</t>
+          <t>drewsullivan22</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>andrewmoise226</t>
+          <t>hjs4505</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>kimberlyymorsee</t>
+          <t>kevinunger3</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>flylikemicah</t>
+          <t>poppydeluz</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>k.a.yyy_</t>
+          <t>_camshel</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>jason.vvs_</t>
+          <t>theoneclemson</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>clemson_cfb_247</t>
+          <t>lauraelizabethwheat</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>marenakraft</t>
+          <t>jeriruss09</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>carol.llambert</t>
+          <t>romangilliatt</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>chloe.gibson3</t>
+          <t>lilly_8805</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>matt.crowley_</t>
+          <t>ethan_donehue</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>lily.manlove</t>
+          <t>avalawson_</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>nwg0718</t>
+          <t>corinnebradford_</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>carsonaugie29</t>
+          <t>sashasuggs</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>tinatash8</t>
+          <t>joomyjoomjoomy</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ellamimms_</t>
+          <t>davisonaudrey_</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>farris.dak</t>
+          <t>emilycarroca</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>clemsonsummerco27</t>
+          <t>savannahg523</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>_iamalyson_</t>
+          <t>isabella.snell</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>kinsleywarfle</t>
+          <t>stunna4drill</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>sammysirover</t>
+          <t>katiechacharone</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>louiebertrani</t>
+          <t>liv.jade</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>dr.d_hhiam</t>
+          <t>mckenna_rimel</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>padgemodo</t>
+          <t>msmith.7</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>kristasurp_05</t>
+          <t>kierston_pace</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>elizabeth_552</t>
+          <t>anthonymolander2</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>_blakebiggs_</t>
+          <t>emmacohen02</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>brody.mccauley</t>
+          <t>maryalessio_</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>oliviacullum</t>
+          <t>ameliamcintiree</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>_nicoleyra</t>
+          <t>paul.duncan88</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>_luciamanrique_</t>
+          <t>maddynickelson</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>sarahxcarlson</t>
+          <t>abbeynichole_</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>haylee._scott</t>
+          <t>chamu.04</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>xachary.sc</t>
+          <t>isabellavbrookhart</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>jmkaberry6</t>
+          <t>beckysmith4801</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>msandman_04</t>
+          <t>fred_williamson01</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>jusgray77</t>
+          <t>mkrodriguez16</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>amelia_c.z</t>
+          <t>keelyhagan</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>taylorkommor</t>
+          <t>asherconrey</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>cooperwilson12</t>
+          <t>kat_odeen</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>madelinemccrae</t>
+          <t>christykmiller</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>austin._.mcquire</t>
+          <t>chloe.shoultz18</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>lexi_layland</t>
+          <t>greenhorizons.lawn</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>___katievaughn</t>
+          <t>michela.peluso</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>tony_maguire_</t>
+          <t>krishh.patelll</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ellaarosenorriss</t>
+          <t>julianbauer__</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>juliannalewandowski</t>
+          <t>ediekelsey2023</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>lil._.sira</t>
+          <t>camdyn.douglas</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>co_nnor6238</t>
+          <t>kenziegallup</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>xbella.v</t>
+          <t>ryandriscoll24</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>alexa.tuller</t>
+          <t>bradenquinby</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>maggie.lubel</t>
+          <t>carol.llambert</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>sydneyyhumphreys</t>
+          <t>goeddeholly</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>kalebhyatt22</t>
+          <t>ashleybalot</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>shelbyshugars</t>
+          <t>parkerstokes05</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>masona_atwood</t>
+          <t>avafowler_</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>jennabruno_</t>
+          <t>lisa.bigler</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>tyler.dorsey</t>
+          <t>jared_trindel</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>knoxsumner</t>
+          <t>gina.bertotti</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>charlielynn42</t>
+          <t>yamilepaniaguaa</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>sarrah.collins</t>
+          <t>christopher_vizzina</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>noahellis05</t>
+          <t>ashtonstacks</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>em.ilycarey</t>
+          <t>victoria_lamendola</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>im_big_tim</t>
+          <t>joleemulik</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>averybaumgartner</t>
+          <t>wyattgeitner</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>eisnertess</t>
+          <t>louiebertrani</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>envy.calaa</t>
+          <t>anayajbaker</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>jdcapo17</t>
+          <t>garytw1978</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>davisonaudrey_</t>
+          <t>michaeldrade_</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>madisonlatrell</t>
+          <t>ecoward7</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>41hill</t>
+          <t>willj843</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>maggiecolvinn</t>
+          <t>chance.fitzgeraldd</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>jlewis.4</t>
+          <t>wyattlangford_17</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>reilly_reardon165</t>
+          <t>jamesregan13</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>alexwriv8</t>
+          <t>paulb3bb</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>shreyyparikh</t>
+          <t>oey.clothing.co</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>wroumillat1</t>
+          <t>lmonto24</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>f.a.anderson87</t>
+          <t>kellen.gbach</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>aleplus4</t>
+          <t>parkerlowe63</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>katie.cooperr</t>
+          <t>nevaehhh_payne</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ashleyrose_2184</t>
+          <t>lucygetz_</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>alyssapacheco</t>
+          <t>laurenn.grant</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>brooke.lunderville</t>
+          <t>mx.dessy</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>patr1ck.allen</t>
+          <t>kase4570</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>alanhernandy</t>
+          <t>tanishka.arcot5</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>kris.koen.7</t>
+          <t>tony_maguire_</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ellaaajoness</t>
+          <t>sadiemims_</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>sooquinn7</t>
+          <t>alanhernandy</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>jmason.17</t>
+          <t>taylorkommor</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>noblerone04</t>
+          <t>kenneth_holland1</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>camrynsnyder7</t>
+          <t>xoxo.taylortay</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>sethwates</t>
+          <t>cattouchard</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>savannahpleasantt</t>
+          <t>brooklynmacyy</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>iamthemilkmango_</t>
+          <t>lily.gessel</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>abbeynichole_</t>
+          <t>kateruanee</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>cadencolangelo</t>
+          <t>ryancorey7</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>avafowler_</t>
+          <t>prestonblubaugh</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>helen_johnsonnn</t>
+          <t>ruxandra980</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>jackhaughey27</t>
+          <t>nathanielsmolen</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>miajohnst0n</t>
+          <t>ella_knee928</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>christopher_vizzina</t>
+          <t>carsinaull</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>melisssakaminski</t>
+          <t>padgemodo</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>bobgriffin575</t>
+          <t>lannjamess</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>sydneyboss_</t>
+          <t>livv.palmieri</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>maliaa.jewel</t>
+          <t>avery.ck</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>sammoore18</t>
+          <t>juliagalballyy</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>ethan_kreinbrink</t>
+          <t>macey_wilkins</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>sabrina.luvr</t>
+          <t>jack_forrestt</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>pepi.eg</t>
+          <t>megan.lougher</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>jillluckey</t>
+          <t>maddie.dummitt</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>luckeykate_05</t>
+          <t>brody.mccauley</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>madison.branham</t>
+          <t>amanda.andreano</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>lisa.bigler</t>
+          <t>jessmanziak</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>meah.garcia</t>
+          <t>jonesyc_025</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>abby.sanches19</t>
+          <t>keelee_harrison</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>niyyaa.nasha3</t>
+          <t>cperron023</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>kimipapagjika</t>
+          <t>catherine_hudsonn</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>tylerr.traviss</t>
+          <t>_harperctl__</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>gavindrinane</t>
+          <t>thatgirl.someone</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>brennan.s.h</t>
+          <t>tired._.lo</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>cgemme4821</t>
+          <t>lizzienewbold</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>nate.smith.8</t>
+          <t>clemsonfb7</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>livchristensennn</t>
+          <t>james_hammond24</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>brooklyn.easler</t>
+          <t>zmxrie</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>_harrisonwimberly_</t>
+          <t>the_elenaburks</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ellasyn.murphy</t>
+          <t>jocelyn23466</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>isabellavbrookhart</t>
+          <t>graysonrichmond_</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>geoffrey.woodward</t>
+          <t>jayla.kg</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>aeb1215</t>
+          <t>matt.crowley_</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>miaobenson</t>
+          <t>bri_mcabee</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>josh_cahill_</t>
+          <t>jennabruno_</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>alysa_stigall</t>
+          <t>patrice1128</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>dorothystein_</t>
+          <t>gracemalart6</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>macey_wilkins</t>
+          <t>agparnell_29</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>sawyer_brinson_5</t>
+          <t>iann_lau</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>keenan_the_domino</t>
+          <t>maddyroseclarkk</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>katie.mills22</t>
+          <t>iamthemilkmango_</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>keelyhagan</t>
+          <t>_westongrant_</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>theoneclemson</t>
+          <t>riley.alexander13</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>poppydeluz</t>
+          <t>kristiealianiello</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>kay.manzella</t>
+          <t>1ucas.martin</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>zbtclemson</t>
+          <t>addie.j.johnson</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>laurenn.grant</t>
+          <t>masona_atwood</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>iamjudithcooke</t>
+          <t>luke_gellar</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>kenneth_holland1</t>
+          <t>sophie_g715</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>eddie_smore18</t>
+          <t>carolinewoodberry</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>farrah_dierk</t>
+          <t>mckennaamcmahan</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>maryalessio_</t>
+          <t>dianedyeredmond</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>tylerhoward___</t>
+          <t>juliannalewandowski</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>mg_boggs</t>
+          <t>mariat0715</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>priyal11_</t>
+          <t>emilyyyherbert</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>cperron023</t>
+          <t>stubblefieldjohanna</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>macipellegrino</t>
+          <t>kay.manzella</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>lucaconrey</t>
+          <t>mati_cox</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>romangilliatt</t>
+          <t>james.stewart1517</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>parkerbeeks</t>
+          <t>trisharue_</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>hannahnoe_</t>
+          <t>kimsivore</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ssamweiss</t>
+          <t>ella_brynn1</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>hannahlecroyy</t>
+          <t>mayalesack</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>n_lawhorn24</t>
+          <t>samuelgoodroe</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>averykilburn</t>
+          <t>kennedyfarmerr</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>megan.checola</t>
+          <t>ava.biggins</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>meredith.vajdos</t>
+          <t>md.lashista</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>rileyobleness</t>
+          <t>brennan.s.h</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>keelee_harrison</t>
+          <t>paytonjmartin</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>_eddiedunlap_</t>
+          <t>mossburgak1</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>carachecchio</t>
+          <t>janicebeed54</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>avalawson_</t>
+          <t>uhm_logan</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>_adriannacrespo</t>
+          <t>_______inkosi</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>tay___04</t>
+          <t>aeb1215</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>lcastro5813</t>
+          <t>douglascolandrea</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>lydiaparton_</t>
+          <t>mojo_cleary</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>jennaajoyner</t>
+          <t>payton.orosco</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>abby_mesick</t>
+          <t>annaberezansky</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>sophiatownerr</t>
+          <t>skylarsmith844</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>michaelcohen04</t>
+          <t>_jonas47</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>wyattlangford_17</t>
+          <t>abby.sanches19</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>dani.b467</t>
+          <t>dr.d_hhiam</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>mckennaamcmahan</t>
+          <t>angelo.pochiro_</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>kikiii.lynn</t>
+          <t>alexa.lebron1</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>_erin.reilly_</t>
+          <t>eugrob</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>haleighherch</t>
+          <t>katiiecancro</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>melbytheshore</t>
+          <t>madisonberbigler</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>maggie.valdes</t>
+          <t>_.haannaahh._</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>ew_jourdan23</t>
+          <t>tinatash8</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>kellen.gbach</t>
+          <t>tay___04</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>clemsonfb7</t>
+          <t>marykburns1</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>michelbassily_</t>
+          <t>kas_gotklass</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>co0per_d</t>
+          <t>nevets.lleud</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>nickcashion81</t>
+          <t>allisonhennelly</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>jose.vs05</t>
+          <t>emmy_ulmer04</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>avery.smith7</t>
+          <t>nicodmanea</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>z6ckk</t>
+          <t>lucca.jimenez</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>vdellis7</t>
+          <t>preston_miles2</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>douglascolandrea</t>
+          <t>laurenn.owens</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>thatdudevez</t>
+          <t>ryliegrantt</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>jwellmon18</t>
+          <t>co0per_d</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>eugrob</t>
+          <t>sammoore18</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>annieaustin124</t>
+          <t>debdebsc</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>shelby.wallace19</t>
+          <t>mccraesr</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ginapwilliams4444</t>
+          <t>ray_nicholson623</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>mia_bolin</t>
+          <t>eliza.holmess</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>drewsullivan22</t>
+          <t>abby_mesick</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>tunstallmarsha</t>
+          <t>veronica.rey17</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>kinsley_robertsss</t>
+          <t>41hill</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>addie.j.johnson</t>
+          <t>amelialbruyere</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>julietmorze</t>
+          <t>thomas.wg</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>wmklugh</t>
+          <t>laurenn.nettles</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>carolinewoodberry</t>
+          <t>ellaaajoness</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>luke_gellar</t>
+          <t>clemsonsummerco27</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>izzy_ellison</t>
+          <t>isabelleeeee.n</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>kenz_haley</t>
+          <t>kinsley_robertsss</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>bigoreinhardt</t>
+          <t>paul.maguire109</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>jennadoyerr</t>
+          <t>kendell6152</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>hcmeyer05</t>
+          <t>hammondwrenn7</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>sean_lindner</t>
+          <t>courtneym131</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>walkersarah29</t>
+          <t>sydneyjacobs__</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>adam._karen</t>
+          <t>mattcmoran</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>emma.dicioccio</t>
+          <t>double_deets</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>shariff.murphy</t>
+          <t>elizabethamartineau</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>kierabuckley8</t>
+          <t>logan_dodge_</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>skylarsmith844</t>
+          <t>shavenderm1</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>elise.furbush</t>
+          <t>kierabuckley8</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>bronwen__via</t>
+          <t>heyheyitsmaddiej</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>hannahhgrene</t>
+          <t>brock_bird_</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>bellaaa_nebel</t>
+          <t>havenfosterr</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>swishyant.5</t>
+          <t>farrah_dierk</t>
         </is>
       </c>
       <c r="B342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>pittsburgh.prime</t>
+          <t>_nicoleyra</t>
         </is>
       </c>
       <c r="B343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>the_elenaburks</t>
+          <t>sophiejanepoore</t>
         </is>
       </c>
       <c r="B344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>london.cooper4</t>
+          <t>cassidyrager</t>
         </is>
       </c>
       <c r="B345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>nandini__mittal_</t>
+          <t>bsisson98</t>
         </is>
       </c>
       <c r="B346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>cole__geary</t>
+          <t>lauren.polomsky</t>
         </is>
       </c>
       <c r="B347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>shea.dempsey</t>
+          <t>ezekielholden_</t>
         </is>
       </c>
       <c r="B348" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>nolansevillano</t>
+          <t>isaacadams_52</t>
         </is>
       </c>
       <c r="B349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>asherconrey</t>
+          <t>eliz_warren</t>
         </is>
       </c>
       <c r="B350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>finley_gray9</t>
+          <t>averybaumgartner</t>
         </is>
       </c>
       <c r="B351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>jimmy_hockey67</t>
+          <t>derek.burke1</t>
         </is>
       </c>
       <c r="B352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>brooklynmlee_</t>
+          <t>ben_hiderr</t>
         </is>
       </c>
       <c r="B353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>ecoward7</t>
+          <t>elizabeth991599</t>
         </is>
       </c>
       <c r="B354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>michaelabline</t>
+          <t>njm1969_</t>
         </is>
       </c>
       <c r="B355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ellie.zito</t>
+          <t>ry_burke_</t>
         </is>
       </c>
       <c r="B356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>emilyroach05</t>
+          <t>cards2colleg3</t>
         </is>
       </c>
       <c r="B357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>zacwol</t>
+          <t>sammy_rivero</t>
         </is>
       </c>
       <c r="B358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>hammondwrenn7</t>
+          <t>sydriggins</t>
         </is>
       </c>
       <c r="B359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>noah_s550</t>
+          <t>camalexaaa</t>
         </is>
       </c>
       <c r="B360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>lanaj_</t>
+          <t>cgemme4821</t>
         </is>
       </c>
       <c r="B361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>addisyn_ball</t>
+          <t>hadley_shaw3</t>
         </is>
       </c>
       <c r="B362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>robert_rengifo_</t>
+          <t>bcuff5</t>
         </is>
       </c>
       <c r="B363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>_reillyguy</t>
+          <t>merrick_richardson_</t>
         </is>
       </c>
       <c r="B364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>rayhoman1</t>
+          <t>lander.roseann</t>
         </is>
       </c>
       <c r="B365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>heyheyitsmaddiej</t>
+          <t>briangorman23</t>
         </is>
       </c>
       <c r="B366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>angel_magana_alfaro</t>
+          <t>jwellmon18</t>
         </is>
       </c>
       <c r="B367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>eduarda_alm03</t>
+          <t>marcella_hill</t>
         </is>
       </c>
       <c r="B368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>_oliviaburchell</t>
+          <t>lisae.843</t>
         </is>
       </c>
       <c r="B369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>ayden_sufka</t>
+          <t>chriang14_</t>
         </is>
       </c>
       <c r="B370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>meg_nolen</t>
+          <t>annacylkowski</t>
         </is>
       </c>
       <c r="B371" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>rockett_will</t>
+          <t>emilio.o_c</t>
         </is>
       </c>
       <c r="B372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>ellanuccetelli</t>
+          <t>wroumillat1</t>
         </is>
       </c>
       <c r="B373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>corinnebradford_</t>
+          <t>will_zuhosky3</t>
         </is>
       </c>
       <c r="B374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>caraboowwest</t>
+          <t>btmasters12</t>
         </is>
       </c>
       <c r="B375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>___a.diana___</t>
+          <t>chapmanwest3</t>
         </is>
       </c>
       <c r="B376" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>_jonas47</t>
+          <t>noahellis05</t>
         </is>
       </c>
       <c r="B377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>molly.ann.harris</t>
+          <t>nicolette_1015</t>
         </is>
       </c>
       <c r="B378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>zoeyfrench</t>
+          <t>nate.smith.8</t>
         </is>
       </c>
       <c r="B379" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>hannahmaeu_</t>
+          <t>truland4</t>
         </is>
       </c>
       <c r="B380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>hamza49us</t>
+          <t>miaobenson</t>
         </is>
       </c>
       <c r="B381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>krishh.patelll</t>
+          <t>nyalaburke</t>
         </is>
       </c>
       <c r="B382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>briannaasaladino</t>
+          <t>mattieanajack</t>
         </is>
       </c>
       <c r="B383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>emmy_ulmer04</t>
+          <t>charlie_willmann</t>
         </is>
       </c>
       <c r="B384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>cohenn_l</t>
+          <t>ansley.reagan</t>
         </is>
       </c>
       <c r="B385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>riley_giordano</t>
+          <t>hunter_c100</t>
         </is>
       </c>
       <c r="B386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>lelaxrush</t>
+          <t>ethankendall_04</t>
         </is>
       </c>
       <c r="B387" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>kyra.bollingerr</t>
+          <t>weston.tse</t>
         </is>
       </c>
       <c r="B388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>tystanford1</t>
+          <t>liam.cheers</t>
         </is>
       </c>
       <c r="B389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>jncole10</t>
+          <t>sommer.unzicker</t>
         </is>
       </c>
       <c r="B390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>connoroneil14</t>
+          <t>keenan_the_domino</t>
         </is>
       </c>
       <c r="B391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>logan.gilbert999</t>
+          <t>jmkaberry6</t>
         </is>
       </c>
       <c r="B392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>chaysej.11</t>
+          <t>madd.yt3</t>
         </is>
       </c>
       <c r="B393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>ardendelbueno</t>
+          <t>reaganquillo</t>
         </is>
       </c>
       <c r="B394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>sally_goetz</t>
+          <t>emmahobbs_</t>
         </is>
       </c>
       <c r="B395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>isabelleterracciano</t>
+          <t>emilyrianee</t>
         </is>
       </c>
       <c r="B396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>mackenzieewoodd</t>
+          <t>savannahnorris.1</t>
         </is>
       </c>
       <c r="B397" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>jasejones72</t>
+          <t>bricewhitehouse</t>
         </is>
       </c>
       <c r="B398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>ellaa_heggie</t>
+          <t>alysa_stigall</t>
         </is>
       </c>
       <c r="B399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>parkerlowe63</t>
+          <t>strayhorn.cltt</t>
         </is>
       </c>
       <c r="B400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>brendan.erickson11</t>
+          <t>mak31405</t>
         </is>
       </c>
       <c r="B401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>sophia___wood</t>
+          <t>_.kendall_hallman._</t>
         </is>
       </c>
       <c r="B402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>maggieblum_</t>
+          <t>cashmxney.ag</t>
         </is>
       </c>
       <c r="B403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>kennyy3k</t>
+          <t>lane_a_</t>
         </is>
       </c>
       <c r="B404" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>thatgirl.someone</t>
+          <t>connor_babb_</t>
         </is>
       </c>
       <c r="B405" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>laceyedwardsss</t>
+          <t>emilys_art4life</t>
         </is>
       </c>
       <c r="B406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>taryn_grozio</t>
+          <t>shelby.downer</t>
         </is>
       </c>
       <c r="B407" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ak.dutton</t>
+          <t>edrdz121</t>
         </is>
       </c>
       <c r="B408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>savannahg523</t>
+          <t>rockett_will</t>
         </is>
       </c>
       <c r="B409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>jonn.yoo</t>
+          <t>lcastro5813</t>
         </is>
       </c>
       <c r="B410" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>kateruanee</t>
+          <t>noblerone04</t>
         </is>
       </c>
       <c r="B411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>lilly_8805</t>
+          <t>luluwentz</t>
         </is>
       </c>
       <c r="B412" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>elliotleatherberry</t>
+          <t>brooklynmlee_</t>
         </is>
       </c>
       <c r="B413" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>clemson.sammy</t>
+          <t>57hodgson</t>
         </is>
       </c>
       <c r="B414" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>briandemps</t>
+          <t>diego_bldrss</t>
         </is>
       </c>
       <c r="B415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>jacobschosser</t>
+          <t>alex.ercolino</t>
         </is>
       </c>
       <c r="B416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>emmacohen02</t>
+          <t>zaxbyschickenman</t>
         </is>
       </c>
       <c r="B417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>mckenna_gildon</t>
+          <t>c_mac_0712</t>
         </is>
       </c>
       <c r="B418" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>_juliewheeler</t>
+          <t>mackenzieewoodd</t>
         </is>
       </c>
       <c r="B419" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>katiechacharone</t>
+          <t>connoroneil14</t>
         </is>
       </c>
       <c r="B420" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>esu_2028</t>
+          <t>ellie.runnels</t>
         </is>
       </c>
       <c r="B421" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>lucca.jimenez</t>
+          <t>__isaacrollins__</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>ethankendall_04</t>
+          <t>vintageclemsonco</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>tessaraccio</t>
+          <t>cyaanky</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>bella.maddox</t>
+          <t>gaea.adams</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>mattieanajack</t>
+          <t>co_nnor6238</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>ava.pasalich</t>
+          <t>sophianorrth</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>sydneyjacobs__</t>
+          <t>bathroom_jesus_69</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>camreiland2</t>
+          <t>dani.b467</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>s.samantha_8</t>
+          <t>kathy.sandlin</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>santaclara2029</t>
+          <t>_annagraceelizabeth</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>_rileyelizabethh</t>
+          <t>ravenjohn52</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>_luketringali</t>
+          <t>reagannelson._</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>alyssa.laurino</t>
+          <t>xbella.v</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>aeric_wender</t>
+          <t>sarahgracekizer</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>alex.ercolino</t>
+          <t>scott_grams</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>edrdz121</t>
+          <t>kyleehelinski</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>graysonrichmond_</t>
+          <t>gabby_montalvo</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>ediekelsey2023</t>
+          <t>a.lbrown3</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>crystalblackwell</t>
+          <t>josiah_macchi</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>annacylkowski</t>
+          <t>cetta_fusco</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>chloe_sipe</t>
+          <t>caleb_mccrary04</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>peterabline</t>
+          <t>beck.w.527</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>w_joyner04</t>
+          <t>jackie.federowicz</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>nataliasimonee</t>
+          <t>1_lenab</t>
         </is>
       </c>
       <c r="B445" t="b">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>rileymakana</t>
+          <t>louise.shiner</t>
         </is>
       </c>
       <c r="B446" t="b">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>57hodgson</t>
+          <t>eliana.c.ponce</t>
         </is>
       </c>
       <c r="B447" t="b">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>emznem25</t>
+          <t>rhea.lay</t>
         </is>
       </c>
       <c r="B448" t="b">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>kayleigh_doerflein</t>
+          <t>saraconkling_</t>
         </is>
       </c>
       <c r="B449" t="b">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>ethan_donehue</t>
+          <t>rhyenp</t>
         </is>
       </c>
       <c r="B450" t="b">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>ashley.lamberti_</t>
+          <t>marlene.wgt</t>
         </is>
       </c>
       <c r="B451" t="b">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>reesemelton_</t>
+          <t>annagibbsss</t>
         </is>
       </c>
       <c r="B452" t="b">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>connor_babb_</t>
+          <t>carlito__jones</t>
         </is>
       </c>
       <c r="B453" t="b">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>_.kendall_hallman._</t>
+          <t>jusgray77</t>
         </is>
       </c>
       <c r="B454" t="b">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>sivore</t>
+          <t>niyyaa.nasha3</t>
         </is>
       </c>
       <c r="B455" t="b">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>suzokiart</t>
+          <t>clemson.sammy</t>
         </is>
       </c>
       <c r="B456" t="b">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>benjaminhughes630</t>
+          <t>aeric_wender</t>
         </is>
       </c>
       <c r="B457" t="b">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>nevaeh.paradis</t>
+          <t>brooke.lunderville</t>
         </is>
       </c>
       <c r="B458" t="b">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>reagankeys</t>
+          <t>katie.cooperr</t>
         </is>
       </c>
       <c r="B459" t="b">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>sufka_yl_oils</t>
+          <t>priyal11_</t>
         </is>
       </c>
       <c r="B460" t="b">
@@ -5038,7 +5038,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>victoria_lamendola</t>
+          <t>dorothystein_</t>
         </is>
       </c>
       <c r="B461" t="b">
@@ -5048,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>liv.jade</t>
+          <t>noellemclane_</t>
         </is>
       </c>
       <c r="B462" t="b">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>carsonkessler_</t>
+          <t>christian_hausmann11</t>
         </is>
       </c>
       <c r="B463" t="b">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>presleysparks_</t>
+          <t>clemsonchristy</t>
         </is>
       </c>
       <c r="B464" t="b">
@@ -5078,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>alfredo.g56</t>
+          <t>f.a.anderson87</t>
         </is>
       </c>
       <c r="B465" t="b">
@@ -5088,7 +5088,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>kaykay_herrman</t>
+          <t>kayla.gutierrez27</t>
         </is>
       </c>
       <c r="B466" t="b">
@@ -5098,7 +5098,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>ameliamcintiree</t>
+          <t>manuelpilaguano558</t>
         </is>
       </c>
       <c r="B467" t="b">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>laurenn.owens</t>
+          <t>janimalss</t>
         </is>
       </c>
       <c r="B468" t="b">
@@ -5118,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>ibsenlise</t>
+          <t>shea.dempsey</t>
         </is>
       </c>
       <c r="B469" t="b">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>jack_forrestt</t>
+          <t>eli.terrell3</t>
         </is>
       </c>
       <c r="B470" t="b">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>charlotte_moylan1</t>
+          <t>casey.janee</t>
         </is>
       </c>
       <c r="B471" t="b">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>carolineewilkinson</t>
+          <t>jam3s.moran</t>
         </is>
       </c>
       <c r="B472" t="b">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>reaganquillo</t>
+          <t>mason.w.rodgers</t>
         </is>
       </c>
       <c r="B473" t="b">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>elizasavannah</t>
+          <t>jose.vs05</t>
         </is>
       </c>
       <c r="B474" t="b">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>ishika_loomba</t>
+          <t>breniyahh_</t>
         </is>
       </c>
       <c r="B475" t="b">
@@ -5188,410 +5188,10 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>nyalaburke</t>
+          <t>izzy__864</t>
         </is>
       </c>
       <c r="B476" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>j_sowle</t>
-        </is>
-      </c>
-      <c r="B477" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>itsjalil256</t>
-        </is>
-      </c>
-      <c r="B478" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>amelialbruyere</t>
-        </is>
-      </c>
-      <c r="B479" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>alecdiaz23</t>
-        </is>
-      </c>
-      <c r="B480" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>jessmanziak</t>
-        </is>
-      </c>
-      <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>isabelleeeee.n</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>shaunawittt</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>maeponeill</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>angelo.pochiro_</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>jackmurphy1_</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>miggy.gray</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>_parker_millen_</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>eliza.holmess</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>_mckaylaelizabeth_</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>erin.watsonn_</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>judestilwell</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>chamu.04</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>jules.bono</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>_annagraceelizabeth</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>rylee.johnson11</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>lizzylaw16</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>sophia_rizzitello</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>jordan_groff_</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>lilyrhodes7</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>kensleyparker_</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>cameronlorenz_</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>paul.maguire109</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>jadenmahoney_</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>megan.alyse.sharkey</t>
-        </is>
-      </c>
-      <c r="B505" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>savannahbrummett</t>
-        </is>
-      </c>
-      <c r="B506" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>will_mccu</t>
-        </is>
-      </c>
-      <c r="B507" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>paytonjmartin</t>
-        </is>
-      </c>
-      <c r="B508" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>h_herbert16</t>
-        </is>
-      </c>
-      <c r="B509" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>stephaniesayegh1979</t>
-        </is>
-      </c>
-      <c r="B510" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>drewecopeland</t>
-        </is>
-      </c>
-      <c r="B511" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>aalons08</t>
-        </is>
-      </c>
-      <c r="B512" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>njm1969_</t>
-        </is>
-      </c>
-      <c r="B513" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>kylie.avitabile</t>
-        </is>
-      </c>
-      <c r="B514" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>emmasarina_</t>
-        </is>
-      </c>
-      <c r="B515" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>bri_mcabee</t>
-        </is>
-      </c>
-      <c r="B516" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Marketing/clemson.roomme.xlsx
+++ b/Marketing/clemson.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B476"/>
+  <dimension ref="A1:B445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>rileymakana</t>
+          <t>_simplyanna06789_</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>rhyansawlivich</t>
+          <t>mateatollison</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jacobschosser</t>
+          <t>jack_lynch24</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>kelsey_ragon</t>
+          <t>agparnell_29</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>msmith7404</t>
+          <t>tiachaneyyy</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xachary.sc</t>
+          <t>lilly.umberger</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>emrenl2023</t>
+          <t>tystanford1</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>katie_mueller05</t>
+          <t>jackmcdonough04</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sean_lindner</t>
+          <t>luckeykate_05</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tylerhoward___</t>
+          <t>swishyant.5</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>michaelabline</t>
+          <t>kayleeszimmerman</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>briannaasaladino</t>
+          <t>carlyannbanks</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>flylikemicah</t>
+          <t>abbyzech</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>michael_christian9</t>
+          <t>elsa.feld</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>vanpiercy3</t>
+          <t>izzy.rayburn</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rileyobleness</t>
+          <t>spencershore_11</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>doyersarah</t>
+          <t>makennareed_</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>wtminiard</t>
+          <t>meredith.vajdos</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>mahalacannon</t>
+          <t>elise.romberg</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>pey.hightower</t>
+          <t>rpikee</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>josh_cahill_</t>
+          <t>kenziegallup</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>katie.mills22</t>
+          <t>ruxandra980</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>willgaardner</t>
+          <t>mackenzieewoodd</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ak.dutton</t>
+          <t>janimalss</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>___katievaughn</t>
+          <t>katieshrewsbury</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>linda_29129</t>
+          <t>laurenelongg</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>jake_thompson1014</t>
+          <t>benfreyy</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>_parker_millen_</t>
+          <t>johanna.evink</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>izzy_cuozzo</t>
+          <t>graceenovak</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>annanorton_04</t>
+          <t>laceyedwardsss</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8x.ryan</t>
+          <t>k.a.yyy_</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>tessandtuck</t>
+          <t>caleigh.cuviello</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>keelangray_</t>
+          <t>rocco_ferolito</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>cunurse</t>
+          <t>celiawoodd</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>lizamorriss</t>
+          <t>molly.fugate_</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>sammysirover</t>
+          <t>charlottetjordan</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>katiejo.byars</t>
+          <t>margaretannmcdaniel</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>cam_slavin</t>
+          <t>sam_gosnell6</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>will.baker.27</t>
+          <t>jwhernandez9</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>megan.alyse.sharkey</t>
+          <t>brooklynmacyy</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>jakecabral13</t>
+          <t>reaganquillo</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>clemson.tigerz2023</t>
+          <t>avafowler_</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ky_alyssa23</t>
+          <t>colson.knott</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>michael_kirby09</t>
+          <t>graceverdeschi</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>coleseitz120304</t>
+          <t>meg_brannon20</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>aleplus4</t>
+          <t>jonesyc_025</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ilovefriedchicken.20</t>
+          <t>tessneary</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>elizawbyrd</t>
+          <t>juliet.skrelja</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>elliotleatherberry</t>
+          <t>alissaannderson</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>lucaconrey</t>
+          <t>miaobenson</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>xander0124doe</t>
+          <t>avery.banes</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>aezizh_</t>
+          <t>taylormichelle2106</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>simplyspokencommunications</t>
+          <t>_.haannaahh._</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mariacmonteiroo</t>
+          <t>ellisbannisterr</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>jackmurphy1_</t>
+          <t>mnphillips7</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>kayanealis</t>
+          <t>ella.henderson8</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>lizzylaw16</t>
+          <t>gganglin</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>msandman_04</t>
+          <t>sophie.blackwelll</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mwills686</t>
+          <t>emilys_art4life</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jackhaughey27</t>
+          <t>london.cooper4</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>tessaraccio</t>
+          <t>c.johnson.05</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>lucasbuonoo</t>
+          <t>gabbygregg</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>brycebernard1</t>
+          <t>christine.eb20</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>katiem555</t>
+          <t>jake_thompson1014</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>taylor.scelfo</t>
+          <t>ladybug20108</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>hughstonreagin</t>
+          <t>lily.weatherholtz</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>macyosborne14</t>
+          <t>jacob_cullather</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>nolansevillano</t>
+          <t>shamita.ruby</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>mia_bolin</t>
+          <t>katie.mills22</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>wilaminaharris</t>
+          <t>katedargan1</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>alexwriv8</t>
+          <t>jackradziwicz</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sydalexx_</t>
+          <t>haydynanderson</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ellie.zito</t>
+          <t>nicholasgarcia25</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>elise.furbush</t>
+          <t>ashlyn_beatty</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>andrewlama12</t>
+          <t>patr1ck.allen</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>nataliasimonee</t>
+          <t>palmerp_fishing</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>madisonlatrell</t>
+          <t>_oliviaburchell</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>grayson_housley</t>
+          <t>colby.braden</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>sarahxcarlson</t>
+          <t>addielarimer</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>anna.mikaylenn</t>
+          <t>_blakebiggs_</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>hannah_perky</t>
+          <t>ellie.arden7</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>adam._karen</t>
+          <t>victoria_lamendola</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>chris.bryant17</t>
+          <t>ava_calamita</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>sydneyboss_</t>
+          <t>siobhanfitzgerald_</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>kayleesyvone</t>
+          <t>addison.kornegay</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>luvvvsaj</t>
+          <t>_lillylawrence_</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>wyattshiltz</t>
+          <t>marindigilio</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>eliza_dargan1</t>
+          <t>amjones005</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>sophia.bohm</t>
+          <t>aanniedavis</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>emilycameronnix</t>
+          <t>thatdudevez</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>conrock_04</t>
+          <t>averieaubuchon</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>sawyer_brinson_5</t>
+          <t>skyequina</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>vmillernj</t>
+          <t>alexa.lebron1</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>eliza.ellett</t>
+          <t>katelyn_cabral_</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>clark_jenkins</t>
+          <t>gmangeot_05</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>jimmy_hockey67</t>
+          <t>emiecategreenn</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>darlyn.estrada.1203</t>
+          <t>kristin.doebele</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>k.a.yyy_</t>
+          <t>jakecabral13</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>brendan_j_s</t>
+          <t>carolinetisdale18</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,307 +1448,307 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t.homas.__</t>
+          <t>_laurenadamss</t>
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>kris.koen.7</t>
+          <t>kimipapagjika</t>
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>haleighherch</t>
+          <t>neely.albert14</t>
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>iamjudithcooke</t>
+          <t>ben_hiderr</t>
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>_eddiedunlap_</t>
+          <t>ccuocu_</t>
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>reagan.porth</t>
+          <t>madelynleroy</t>
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ibsenlise</t>
+          <t>jadavis_6</t>
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>colethomas67</t>
+          <t>sabrinaa_.hill</t>
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>_iamalyson_</t>
+          <t>lifeofmfs</t>
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>katherine.w10</t>
+          <t>mikabocobo</t>
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>_ella_warren_</t>
+          <t>charliemclaurin</t>
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>zbtclemson</t>
+          <t>braylyn_riggins</t>
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>isabelleterracciano</t>
+          <t>_krislynnbangs</t>
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ryan_murray23</t>
+          <t>giannapetriello</t>
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>drewsullivan22</t>
+          <t>maylee_sides</t>
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>hjs4505</t>
+          <t>casey.janee</t>
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>kevinunger3</t>
+          <t>will_manello1</t>
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>poppydeluz</t>
+          <t>knoxsumner</t>
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>_camshel</t>
+          <t>_vivianharris_</t>
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>theoneclemson</t>
+          <t>parkerholmess</t>
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>lauraelizabethwheat</t>
+          <t>janegoodman_</t>
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>jeriruss09</t>
+          <t>__allyjones__</t>
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>romangilliatt</t>
+          <t>maggie.lubel</t>
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>lilly_8805</t>
+          <t>_bella.hogie</t>
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ethan_donehue</t>
+          <t>__rileyhenderson</t>
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>avalawson_</t>
+          <t>lillianeclark</t>
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>corinnebradford_</t>
+          <t>kellen.gbach</t>
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>sashasuggs</t>
+          <t>addigarland</t>
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>joomyjoomjoomy</t>
+          <t>gracekellytraverso</t>
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>davisonaudrey_</t>
+          <t>isabellavbrookhart</t>
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>emilycarroca</t>
+          <t>allir.fidler</t>
         </is>
       </c>
       <c r="B132" t="b">
@@ -1758,7 +1758,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>savannahg523</t>
+          <t>virginia.325</t>
         </is>
       </c>
       <c r="B133" t="b">
@@ -1768,7 +1768,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>isabella.snell</t>
+          <t>paulb3bb</t>
         </is>
       </c>
       <c r="B134" t="b">
@@ -1778,7 +1778,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>stunna4drill</t>
+          <t>marykatekovalcik</t>
         </is>
       </c>
       <c r="B135" t="b">
@@ -1788,7 +1788,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>katiechacharone</t>
+          <t>lily._.drake</t>
         </is>
       </c>
       <c r="B136" t="b">
@@ -1798,7 +1798,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>liv.jade</t>
+          <t>carowilliee</t>
         </is>
       </c>
       <c r="B137" t="b">
@@ -1808,7 +1808,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>mckenna_rimel</t>
+          <t>audrey_jj5687</t>
         </is>
       </c>
       <c r="B138" t="b">
@@ -1818,7 +1818,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>msmith.7</t>
+          <t>_oliviarochelle</t>
         </is>
       </c>
       <c r="B139" t="b">
@@ -1828,7 +1828,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>kierston_pace</t>
+          <t>mallie_gracyn.m</t>
         </is>
       </c>
       <c r="B140" t="b">
@@ -1838,7 +1838,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>anthonymolander2</t>
+          <t>ky_lie982</t>
         </is>
       </c>
       <c r="B141" t="b">
@@ -1848,7 +1848,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>emmacohen02</t>
+          <t>sophiadalonzo_</t>
         </is>
       </c>
       <c r="B142" t="b">
@@ -1858,7 +1858,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>maryalessio_</t>
+          <t>emi.tomczyk15</t>
         </is>
       </c>
       <c r="B143" t="b">
@@ -1868,7 +1868,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ameliamcintiree</t>
+          <t>jazmynj.21</t>
         </is>
       </c>
       <c r="B144" t="b">
@@ -1878,7 +1878,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>paul.duncan88</t>
+          <t>ethankendall_04</t>
         </is>
       </c>
       <c r="B145" t="b">
@@ -1888,7 +1888,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>maddynickelson</t>
+          <t>margaretanne02</t>
         </is>
       </c>
       <c r="B146" t="b">
@@ -1898,7 +1898,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>abbeynichole_</t>
+          <t>louiebertrani</t>
         </is>
       </c>
       <c r="B147" t="b">
@@ -1908,7 +1908,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>chamu.04</t>
+          <t>kzelhof</t>
         </is>
       </c>
       <c r="B148" t="b">
@@ -1918,7 +1918,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>isabellavbrookhart</t>
+          <t>coraweber_</t>
         </is>
       </c>
       <c r="B149" t="b">
@@ -1928,7 +1928,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>beckysmith4801</t>
+          <t>gavinruegger</t>
         </is>
       </c>
       <c r="B150" t="b">
@@ -1938,7 +1938,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>fred_williamson01</t>
+          <t>katie_mueller05</t>
         </is>
       </c>
       <c r="B151" t="b">
@@ -1948,7 +1948,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>mkrodriguez16</t>
+          <t>41hill</t>
         </is>
       </c>
       <c r="B152" t="b">
@@ -1958,7 +1958,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>keelyhagan</t>
+          <t>emmaschnorrbusch_</t>
         </is>
       </c>
       <c r="B153" t="b">
@@ -1968,7 +1968,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>asherconrey</t>
+          <t>_kendall.love</t>
         </is>
       </c>
       <c r="B154" t="b">
@@ -1978,7 +1978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>kat_odeen</t>
+          <t>kenziebryantt</t>
         </is>
       </c>
       <c r="B155" t="b">
@@ -1988,7 +1988,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>christykmiller</t>
+          <t>anne.caroline.jordan</t>
         </is>
       </c>
       <c r="B156" t="b">
@@ -1998,7 +1998,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>chloe.shoultz18</t>
+          <t>laneycollarr</t>
         </is>
       </c>
       <c r="B157" t="b">
@@ -2008,7 +2008,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>greenhorizons.lawn</t>
+          <t>mcewengore</t>
         </is>
       </c>
       <c r="B158" t="b">
@@ -2018,7 +2018,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>michela.peluso</t>
+          <t>kenzie_west05</t>
         </is>
       </c>
       <c r="B159" t="b">
@@ -2028,7 +2028,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>krishh.patelll</t>
+          <t>brookemyrick</t>
         </is>
       </c>
       <c r="B160" t="b">
@@ -2038,7 +2038,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>julianbauer__</t>
+          <t>heatherwyoung</t>
         </is>
       </c>
       <c r="B161" t="b">
@@ -2048,7 +2048,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ediekelsey2023</t>
+          <t>kiyoko.xvi</t>
         </is>
       </c>
       <c r="B162" t="b">
@@ -2058,7 +2058,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>camdyn.douglas</t>
+          <t>reid_melton</t>
         </is>
       </c>
       <c r="B163" t="b">
@@ -2068,7 +2068,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>kenziegallup</t>
+          <t>tj_miller277</t>
         </is>
       </c>
       <c r="B164" t="b">
@@ -2078,7 +2078,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ryandriscoll24</t>
+          <t>kenz_haley</t>
         </is>
       </c>
       <c r="B165" t="b">
@@ -2088,7 +2088,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>bradenquinby</t>
+          <t>camillaashh</t>
         </is>
       </c>
       <c r="B166" t="b">
@@ -2098,7 +2098,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>carol.llambert</t>
+          <t>chance.fitzgeraldd</t>
         </is>
       </c>
       <c r="B167" t="b">
@@ -2108,7 +2108,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>goeddeholly</t>
+          <t>_camshel</t>
         </is>
       </c>
       <c r="B168" t="b">
@@ -2118,7 +2118,7 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ashleybalot</t>
+          <t>matthew.stelle</t>
         </is>
       </c>
       <c r="B169" t="b">
@@ -2128,7 +2128,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>parkerstokes05</t>
+          <t>vickilutzz</t>
         </is>
       </c>
       <c r="B170" t="b">
@@ -2138,7 +2138,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>avafowler_</t>
+          <t>mason.w.rodgers</t>
         </is>
       </c>
       <c r="B171" t="b">
@@ -2148,7 +2148,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>lisa.bigler</t>
+          <t>savannahpytel</t>
         </is>
       </c>
       <c r="B172" t="b">
@@ -2158,7 +2158,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>jared_trindel</t>
+          <t>lily.manlove</t>
         </is>
       </c>
       <c r="B173" t="b">
@@ -2168,7 +2168,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>gina.bertotti</t>
+          <t>logan.gilbert999</t>
         </is>
       </c>
       <c r="B174" t="b">
@@ -2178,7 +2178,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>yamilepaniaguaa</t>
+          <t>david.martignetti.1</t>
         </is>
       </c>
       <c r="B175" t="b">
@@ -2188,7 +2188,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>christopher_vizzina</t>
+          <t>_taylorbjohnson</t>
         </is>
       </c>
       <c r="B176" t="b">
@@ -2198,7 +2198,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ashtonstacks</t>
+          <t>taliagraceflores</t>
         </is>
       </c>
       <c r="B177" t="b">
@@ -2208,7 +2208,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>victoria_lamendola</t>
+          <t>allydeckerr</t>
         </is>
       </c>
       <c r="B178" t="b">
@@ -2218,7 +2218,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>joleemulik</t>
+          <t>benjaminhughes630</t>
         </is>
       </c>
       <c r="B179" t="b">
@@ -2228,7 +2228,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>wyattgeitner</t>
+          <t>mphilbin626</t>
         </is>
       </c>
       <c r="B180" t="b">
@@ -2238,7 +2238,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>louiebertrani</t>
+          <t>jazmine.nicolas</t>
         </is>
       </c>
       <c r="B181" t="b">
@@ -2248,7 +2248,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>anayajbaker</t>
+          <t>alivia_vassallo</t>
         </is>
       </c>
       <c r="B182" t="b">
@@ -2258,7 +2258,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>garytw1978</t>
+          <t>avery.smith7</t>
         </is>
       </c>
       <c r="B183" t="b">
@@ -2268,7 +2268,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>michaeldrade_</t>
+          <t>sarah.h.bryan</t>
         </is>
       </c>
       <c r="B184" t="b">
@@ -2278,7 +2278,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ecoward7</t>
+          <t>emmalshealy</t>
         </is>
       </c>
       <c r="B185" t="b">
@@ -2288,7 +2288,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>willj843</t>
+          <t>hunter_heyboer_</t>
         </is>
       </c>
       <c r="B186" t="b">
@@ -2298,7 +2298,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>chance.fitzgeraldd</t>
+          <t>michmischley</t>
         </is>
       </c>
       <c r="B187" t="b">
@@ -2308,7 +2308,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>wyattlangford_17</t>
+          <t>1ucas.martin</t>
         </is>
       </c>
       <c r="B188" t="b">
@@ -2318,7 +2318,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>jamesregan13</t>
+          <t>macipellegrino</t>
         </is>
       </c>
       <c r="B189" t="b">
@@ -2328,7 +2328,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>paulb3bb</t>
+          <t>megan.checola</t>
         </is>
       </c>
       <c r="B190" t="b">
@@ -2338,7 +2338,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>oey.clothing.co</t>
+          <t>robert_rengifo_</t>
         </is>
       </c>
       <c r="B191" t="b">
@@ -2348,7 +2348,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>lmonto24</t>
+          <t>marcella_hill</t>
         </is>
       </c>
       <c r="B192" t="b">
@@ -2358,7 +2358,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>kellen.gbach</t>
+          <t>lucasbuonoo</t>
         </is>
       </c>
       <c r="B193" t="b">
@@ -2368,7 +2368,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>parkerlowe63</t>
+          <t>zoeyfrench</t>
         </is>
       </c>
       <c r="B194" t="b">
@@ -2378,7 +2378,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>nevaehhh_payne</t>
+          <t>mitchellwscott</t>
         </is>
       </c>
       <c r="B195" t="b">
@@ -2388,7 +2388,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>lucygetz_</t>
+          <t>co_nnor6238</t>
         </is>
       </c>
       <c r="B196" t="b">
@@ -2398,7 +2398,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>laurenn.grant</t>
+          <t>josephine.pers</t>
         </is>
       </c>
       <c r="B197" t="b">
@@ -2408,7 +2408,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>mx.dessy</t>
+          <t>rachelalvis_</t>
         </is>
       </c>
       <c r="B198" t="b">
@@ -2418,7 +2418,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>kase4570</t>
+          <t>maddieelder_</t>
         </is>
       </c>
       <c r="B199" t="b">
@@ -2428,7 +2428,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>tanishka.arcot5</t>
+          <t>avabethwade</t>
         </is>
       </c>
       <c r="B200" t="b">
@@ -2438,7 +2438,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>tony_maguire_</t>
+          <t>samanthaa.stewart_</t>
         </is>
       </c>
       <c r="B201" t="b">
@@ -2448,7 +2448,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>sadiemims_</t>
+          <t>camden.hawk</t>
         </is>
       </c>
       <c r="B202" t="b">
@@ -2458,7 +2458,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>alanhernandy</t>
+          <t>averykinney_</t>
         </is>
       </c>
       <c r="B203" t="b">
@@ -2468,7 +2468,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>taylorkommor</t>
+          <t>macey_wilkins</t>
         </is>
       </c>
       <c r="B204" t="b">
@@ -2478,7 +2478,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>kenneth_holland1</t>
+          <t>arden._.harley</t>
         </is>
       </c>
       <c r="B205" t="b">
@@ -2488,7 +2488,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>xoxo.taylortay</t>
+          <t>miggy.gray</t>
         </is>
       </c>
       <c r="B206" t="b">
@@ -2498,7 +2498,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>cattouchard</t>
+          <t>piper.sassi</t>
         </is>
       </c>
       <c r="B207" t="b">
@@ -2508,7 +2508,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>brooklynmacyy</t>
+          <t>b_miller_4</t>
         </is>
       </c>
       <c r="B208" t="b">
@@ -2518,7 +2518,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>lily.gessel</t>
+          <t>clemsonfb7</t>
         </is>
       </c>
       <c r="B209" t="b">
@@ -2528,7 +2528,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>kateruanee</t>
+          <t>kyleehelinski</t>
         </is>
       </c>
       <c r="B210" t="b">
@@ -2538,7 +2538,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ryancorey7</t>
+          <t>evagallagherr</t>
         </is>
       </c>
       <c r="B211" t="b">
@@ -2548,7 +2548,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>prestonblubaugh</t>
+          <t>brooksw06</t>
         </is>
       </c>
       <c r="B212" t="b">
@@ -2558,7 +2558,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>ruxandra980</t>
+          <t>rileybiegel</t>
         </is>
       </c>
       <c r="B213" t="b">
@@ -2568,7 +2568,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>nathanielsmolen</t>
+          <t>_laurendouglas_</t>
         </is>
       </c>
       <c r="B214" t="b">
@@ -2578,7 +2578,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>ella_knee928</t>
+          <t>leannabrownnn</t>
         </is>
       </c>
       <c r="B215" t="b">
@@ -2588,7 +2588,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>carsinaull</t>
+          <t>santaclara2029</t>
         </is>
       </c>
       <c r="B216" t="b">
@@ -2598,7 +2598,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>padgemodo</t>
+          <t>jakeskolz</t>
         </is>
       </c>
       <c r="B217" t="b">
@@ -2608,7 +2608,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>lannjamess</t>
+          <t>hayne.lauren</t>
         </is>
       </c>
       <c r="B218" t="b">
@@ -2618,7 +2618,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>livv.palmieri</t>
+          <t>lucia.kramerr</t>
         </is>
       </c>
       <c r="B219" t="b">
@@ -2628,7 +2628,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>avery.ck</t>
+          <t>sofia.villegas_</t>
         </is>
       </c>
       <c r="B220" t="b">
@@ -2638,7 +2638,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>juliagalballyy</t>
+          <t>isabella.snell</t>
         </is>
       </c>
       <c r="B221" t="b">
@@ -2648,7 +2648,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>macey_wilkins</t>
+          <t>briannaasaladino</t>
         </is>
       </c>
       <c r="B222" t="b">
@@ -2658,7 +2658,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>jack_forrestt</t>
+          <t>riley_stanton22_</t>
         </is>
       </c>
       <c r="B223" t="b">
@@ -2668,7 +2668,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>megan.lougher</t>
+          <t>marykendall200</t>
         </is>
       </c>
       <c r="B224" t="b">
@@ -2678,7 +2678,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>maddie.dummitt</t>
+          <t>mag.bus</t>
         </is>
       </c>
       <c r="B225" t="b">
@@ -2688,7 +2688,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>brody.mccauley</t>
+          <t>ava.staton</t>
         </is>
       </c>
       <c r="B226" t="b">
@@ -2698,7 +2698,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>amanda.andreano</t>
+          <t>sydneyboss_</t>
         </is>
       </c>
       <c r="B227" t="b">
@@ -2708,7 +2708,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>jessmanziak</t>
+          <t>izzyterramoccia</t>
         </is>
       </c>
       <c r="B228" t="b">
@@ -2718,7 +2718,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>jonesyc_025</t>
+          <t>karsyn.kramer</t>
         </is>
       </c>
       <c r="B229" t="b">
@@ -2728,7 +2728,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>keelee_harrison</t>
+          <t>grace.quinan</t>
         </is>
       </c>
       <c r="B230" t="b">
@@ -2738,7 +2738,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>cperron023</t>
+          <t>averygblake</t>
         </is>
       </c>
       <c r="B231" t="b">
@@ -2748,7 +2748,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>catherine_hudsonn</t>
+          <t>juliannalewandowski</t>
         </is>
       </c>
       <c r="B232" t="b">
@@ -2758,7 +2758,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>_harperctl__</t>
+          <t>kylie.wardddd</t>
         </is>
       </c>
       <c r="B233" t="b">
@@ -2768,7 +2768,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>thatgirl.someone</t>
+          <t>ssadiemoore</t>
         </is>
       </c>
       <c r="B234" t="b">
@@ -2778,7 +2778,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>tired._.lo</t>
+          <t>sgraceclark13</t>
         </is>
       </c>
       <c r="B235" t="b">
@@ -2788,7 +2788,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>lizzienewbold</t>
+          <t>carlito__jones</t>
         </is>
       </c>
       <c r="B236" t="b">
@@ -2798,7 +2798,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>clemsonfb7</t>
+          <t>javant_7</t>
         </is>
       </c>
       <c r="B237" t="b">
@@ -2808,7 +2808,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>james_hammond24</t>
+          <t>becca020305</t>
         </is>
       </c>
       <c r="B238" t="b">
@@ -2818,7 +2818,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>zmxrie</t>
+          <t>judylgoodchild</t>
         </is>
       </c>
       <c r="B239" t="b">
@@ -2828,7 +2828,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>the_elenaburks</t>
+          <t>_iamalyson_</t>
         </is>
       </c>
       <c r="B240" t="b">
@@ -2838,7 +2838,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>jocelyn23466</t>
+          <t>katherine.w10</t>
         </is>
       </c>
       <c r="B241" t="b">
@@ -2848,7 +2848,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>graysonrichmond_</t>
+          <t>maddie.dummitt</t>
         </is>
       </c>
       <c r="B242" t="b">
@@ -2858,7 +2858,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>jayla.kg</t>
+          <t>samantha.grilli</t>
         </is>
       </c>
       <c r="B243" t="b">
@@ -2868,7 +2868,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>matt.crowley_</t>
+          <t>lily.gessel</t>
         </is>
       </c>
       <c r="B244" t="b">
@@ -2878,7 +2878,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>bri_mcabee</t>
+          <t>sandersrogerss</t>
         </is>
       </c>
       <c r="B245" t="b">
@@ -2888,7 +2888,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>jennabruno_</t>
+          <t>shaysimons</t>
         </is>
       </c>
       <c r="B246" t="b">
@@ -2898,7 +2898,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>patrice1128</t>
+          <t>ben.burch_57</t>
         </is>
       </c>
       <c r="B247" t="b">
@@ -2908,7 +2908,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>gracemalart6</t>
+          <t>ry_burke_</t>
         </is>
       </c>
       <c r="B248" t="b">
@@ -2918,7 +2918,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>agparnell_29</t>
+          <t>izzy_cuozzo</t>
         </is>
       </c>
       <c r="B249" t="b">
@@ -2928,7 +2928,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>iann_lau</t>
+          <t>mg_boggs</t>
         </is>
       </c>
       <c r="B250" t="b">
@@ -2938,7 +2938,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>maddyroseclarkk</t>
+          <t>bowen.burns</t>
         </is>
       </c>
       <c r="B251" t="b">
@@ -2948,7 +2948,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>iamthemilkmango_</t>
+          <t>alyssa.laurino</t>
         </is>
       </c>
       <c r="B252" t="b">
@@ -2958,7 +2958,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>_westongrant_</t>
+          <t>ava.biggins</t>
         </is>
       </c>
       <c r="B253" t="b">
@@ -2968,7 +2968,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>riley.alexander13</t>
+          <t>virginiamlander</t>
         </is>
       </c>
       <c r="B254" t="b">
@@ -2978,7 +2978,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>kristiealianiello</t>
+          <t>uberqueensc</t>
         </is>
       </c>
       <c r="B255" t="b">
@@ -2988,7 +2988,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>1ucas.martin</t>
+          <t>bri_burr123</t>
         </is>
       </c>
       <c r="B256" t="b">
@@ -2998,7 +2998,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>addie.j.johnson</t>
+          <t>tjudd0714</t>
         </is>
       </c>
       <c r="B257" t="b">
@@ -3008,7 +3008,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>masona_atwood</t>
+          <t>avery.h.sizemore</t>
         </is>
       </c>
       <c r="B258" t="b">
@@ -3018,7 +3018,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>luke_gellar</t>
+          <t>raahilvora</t>
         </is>
       </c>
       <c r="B259" t="b">
@@ -3028,7 +3028,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>sophie_g715</t>
+          <t>sheriigabby</t>
         </is>
       </c>
       <c r="B260" t="b">
@@ -3038,7 +3038,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>carolinewoodberry</t>
+          <t>nataliasimonee</t>
         </is>
       </c>
       <c r="B261" t="b">
@@ -3048,7 +3048,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>mckennaamcmahan</t>
+          <t>ella.scolaro</t>
         </is>
       </c>
       <c r="B262" t="b">
@@ -3058,7 +3058,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>dianedyeredmond</t>
+          <t>czahn47</t>
         </is>
       </c>
       <c r="B263" t="b">
@@ -3068,7 +3068,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>juliannalewandowski</t>
+          <t>tygrande_</t>
         </is>
       </c>
       <c r="B264" t="b">
@@ -3078,7 +3078,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>mariat0715</t>
+          <t>ava.gillespiee</t>
         </is>
       </c>
       <c r="B265" t="b">
@@ -3088,7 +3088,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>emilyyyherbert</t>
+          <t>beccalindler</t>
         </is>
       </c>
       <c r="B266" t="b">
@@ -3098,7 +3098,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>stubblefieldjohanna</t>
+          <t>chris_carreras12</t>
         </is>
       </c>
       <c r="B267" t="b">
@@ -3108,7 +3108,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>kay.manzella</t>
+          <t>maggieblum_</t>
         </is>
       </c>
       <c r="B268" t="b">
@@ -3118,7 +3118,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>mati_cox</t>
+          <t>addison__carpenter</t>
         </is>
       </c>
       <c r="B269" t="b">
@@ -3128,7 +3128,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>james.stewart1517</t>
+          <t>brycieebaughman</t>
         </is>
       </c>
       <c r="B270" t="b">
@@ -3138,7 +3138,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>trisharue_</t>
+          <t>shealynweed</t>
         </is>
       </c>
       <c r="B271" t="b">
@@ -3148,7 +3148,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>kimsivore</t>
+          <t>elizabeth_552</t>
         </is>
       </c>
       <c r="B272" t="b">
@@ -3158,7 +3158,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>ella_brynn1</t>
+          <t>kaysharon664</t>
         </is>
       </c>
       <c r="B273" t="b">
@@ -3168,7 +3168,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>mayalesack</t>
+          <t>adam._karen</t>
         </is>
       </c>
       <c r="B274" t="b">
@@ -3178,7 +3178,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>samuelgoodroe</t>
+          <t>caleb_mccrary04</t>
         </is>
       </c>
       <c r="B275" t="b">
@@ -3188,7 +3188,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>kennedyfarmerr</t>
+          <t>cashmxney.ag</t>
         </is>
       </c>
       <c r="B276" t="b">
@@ -3198,7 +3198,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>ava.biggins</t>
+          <t>jncole10</t>
         </is>
       </c>
       <c r="B277" t="b">
@@ -3208,7 +3208,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>md.lashista</t>
+          <t>ansleyycohen</t>
         </is>
       </c>
       <c r="B278" t="b">
@@ -3218,7 +3218,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>brennan.s.h</t>
+          <t>lauren_hornick</t>
         </is>
       </c>
       <c r="B279" t="b">
@@ -3228,7 +3228,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>paytonjmartin</t>
+          <t>cgemme4821</t>
         </is>
       </c>
       <c r="B280" t="b">
@@ -3238,7 +3238,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>mossburgak1</t>
+          <t>merrick_richardson_</t>
         </is>
       </c>
       <c r="B281" t="b">
@@ -3248,7 +3248,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>janicebeed54</t>
+          <t>sammysirover</t>
         </is>
       </c>
       <c r="B282" t="b">
@@ -3258,7 +3258,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>uhm_logan</t>
+          <t>laurenryn</t>
         </is>
       </c>
       <c r="B283" t="b">
@@ -3268,7 +3268,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>_______inkosi</t>
+          <t>haleighherch</t>
         </is>
       </c>
       <c r="B284" t="b">
@@ -3278,7 +3278,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>aeb1215</t>
+          <t>jennahhuggins</t>
         </is>
       </c>
       <c r="B285" t="b">
@@ -3288,7 +3288,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>douglascolandrea</t>
+          <t>gracie.085</t>
         </is>
       </c>
       <c r="B286" t="b">
@@ -3298,7 +3298,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>mojo_cleary</t>
+          <t>devanharrelson</t>
         </is>
       </c>
       <c r="B287" t="b">
@@ -3308,7 +3308,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>payton.orosco</t>
+          <t>kaylaa.creechh</t>
         </is>
       </c>
       <c r="B288" t="b">
@@ -3318,7 +3318,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>annaberezansky</t>
+          <t>cadencecribb</t>
         </is>
       </c>
       <c r="B289" t="b">
@@ -3328,7 +3328,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>skylarsmith844</t>
+          <t>reesemelton_</t>
         </is>
       </c>
       <c r="B290" t="b">
@@ -3338,7 +3338,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>_jonas47</t>
+          <t>allyharless15</t>
         </is>
       </c>
       <c r="B291" t="b">
@@ -3348,7 +3348,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>abby.sanches19</t>
+          <t>ava_mericantante</t>
         </is>
       </c>
       <c r="B292" t="b">
@@ -3358,7 +3358,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>dr.d_hhiam</t>
+          <t>tyler_bas</t>
         </is>
       </c>
       <c r="B293" t="b">
@@ -3368,7 +3368,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>angelo.pochiro_</t>
+          <t>oliviaa.mcdonaldd</t>
         </is>
       </c>
       <c r="B294" t="b">
@@ -3378,7 +3378,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>alexa.lebron1</t>
+          <t>willvansicklin</t>
         </is>
       </c>
       <c r="B295" t="b">
@@ -3388,7 +3388,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>eugrob</t>
+          <t>emoryanne_bell</t>
         </is>
       </c>
       <c r="B296" t="b">
@@ -3398,7 +3398,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>katiiecancro</t>
+          <t>kateegraham</t>
         </is>
       </c>
       <c r="B297" t="b">
@@ -3408,7 +3408,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>madisonberbigler</t>
+          <t>samwood__</t>
         </is>
       </c>
       <c r="B298" t="b">
@@ -3418,7 +3418,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>_.haannaahh._</t>
+          <t>dannyzlatev_</t>
         </is>
       </c>
       <c r="B299" t="b">
@@ -3428,7 +3428,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>tinatash8</t>
+          <t>matt.crowley_</t>
         </is>
       </c>
       <c r="B300" t="b">
@@ -3438,7 +3438,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>tay___04</t>
+          <t>ek101.2</t>
         </is>
       </c>
       <c r="B301" t="b">
@@ -3448,7 +3448,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>marykburns1</t>
+          <t>emilyroach05</t>
         </is>
       </c>
       <c r="B302" t="b">
@@ -3458,7 +3458,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>kas_gotklass</t>
+          <t>lynrlk</t>
         </is>
       </c>
       <c r="B303" t="b">
@@ -3468,7 +3468,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>nevets.lleud</t>
+          <t>theoneclemson</t>
         </is>
       </c>
       <c r="B304" t="b">
@@ -3478,7 +3478,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>allisonhennelly</t>
+          <t>its.alyviaa</t>
         </is>
       </c>
       <c r="B305" t="b">
@@ -3488,7 +3488,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>emmy_ulmer04</t>
+          <t>kyliehauser__</t>
         </is>
       </c>
       <c r="B306" t="b">
@@ -3498,7 +3498,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>nicodmanea</t>
+          <t>cassidy.dunk</t>
         </is>
       </c>
       <c r="B307" t="b">
@@ -3508,7 +3508,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>lucca.jimenez</t>
+          <t>isabelleeeee.n</t>
         </is>
       </c>
       <c r="B308" t="b">
@@ -3518,7 +3518,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>preston_miles2</t>
+          <t>cohen_disher</t>
         </is>
       </c>
       <c r="B309" t="b">
@@ -3528,7 +3528,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>laurenn.owens</t>
+          <t>_westongrant_</t>
         </is>
       </c>
       <c r="B310" t="b">
@@ -3538,7 +3538,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>ryliegrantt</t>
+          <t>_kylieewilson</t>
         </is>
       </c>
       <c r="B311" t="b">
@@ -3548,7 +3548,7 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>co0per_d</t>
+          <t>katiesalvo</t>
         </is>
       </c>
       <c r="B312" t="b">
@@ -3558,7 +3558,7 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>sammoore18</t>
+          <t>ally.garvey</t>
         </is>
       </c>
       <c r="B313" t="b">
@@ -3568,7 +3568,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>debdebsc</t>
+          <t>sullilockhart</t>
         </is>
       </c>
       <c r="B314" t="b">
@@ -3578,7 +3578,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>mccraesr</t>
+          <t>gray.hardaway</t>
         </is>
       </c>
       <c r="B315" t="b">
@@ -3588,7 +3588,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ray_nicholson623</t>
+          <t>sarahbeth.b</t>
         </is>
       </c>
       <c r="B316" t="b">
@@ -3598,7 +3598,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>eliza.holmess</t>
+          <t>sara_cush</t>
         </is>
       </c>
       <c r="B317" t="b">
@@ -3608,7 +3608,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>abby_mesick</t>
+          <t>loganaverdick</t>
         </is>
       </c>
       <c r="B318" t="b">
@@ -3618,7 +3618,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>veronica.rey17</t>
+          <t>monika.dhungel</t>
         </is>
       </c>
       <c r="B319" t="b">
@@ -3628,7 +3628,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>41hill</t>
+          <t>_char_bridges</t>
         </is>
       </c>
       <c r="B320" t="b">
@@ -3638,7 +3638,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>amelialbruyere</t>
+          <t>julietmorze</t>
         </is>
       </c>
       <c r="B321" t="b">
@@ -3648,7 +3648,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>thomas.wg</t>
+          <t>clemson.sammy</t>
         </is>
       </c>
       <c r="B322" t="b">
@@ -3658,7 +3658,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>laurenn.nettles</t>
+          <t>realjacobcitron</t>
         </is>
       </c>
       <c r="B323" t="b">
@@ -3668,7 +3668,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>ellaaajoness</t>
+          <t>maddyroseclarkk</t>
         </is>
       </c>
       <c r="B324" t="b">
@@ -3678,7 +3678,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>clemsonsummerco27</t>
+          <t>kyrabusenburg</t>
         </is>
       </c>
       <c r="B325" t="b">
@@ -3688,7 +3688,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>isabelleeeee.n</t>
+          <t>taylorhackneyyy</t>
         </is>
       </c>
       <c r="B326" t="b">
@@ -3698,7 +3698,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>kinsley_robertsss</t>
+          <t>brooklynmlee_</t>
         </is>
       </c>
       <c r="B327" t="b">
@@ -3708,7 +3708,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>paul.maguire109</t>
+          <t>katherine_mockler</t>
         </is>
       </c>
       <c r="B328" t="b">
@@ -3718,7 +3718,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>kendell6152</t>
+          <t>samdipietro1</t>
         </is>
       </c>
       <c r="B329" t="b">
@@ -3728,7 +3728,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>hammondwrenn7</t>
+          <t>brycebernard1</t>
         </is>
       </c>
       <c r="B330" t="b">
@@ -3738,7 +3738,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>courtneym131</t>
+          <t>maciesheaaa</t>
         </is>
       </c>
       <c r="B331" t="b">
@@ -3748,7 +3748,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>sydneyjacobs__</t>
+          <t>jack.rapisarda</t>
         </is>
       </c>
       <c r="B332" t="b">
@@ -3758,7 +3758,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>mattcmoran</t>
+          <t>reese.fitkin</t>
         </is>
       </c>
       <c r="B333" t="b">
@@ -3768,7 +3768,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>double_deets</t>
+          <t>_annalisehernandez</t>
         </is>
       </c>
       <c r="B334" t="b">
@@ -3778,7 +3778,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>elizabethamartineau</t>
+          <t>rayhoman1</t>
         </is>
       </c>
       <c r="B335" t="b">
@@ -3788,7 +3788,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>logan_dodge_</t>
+          <t>emmadibeneditto</t>
         </is>
       </c>
       <c r="B336" t="b">
@@ -3798,7 +3798,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>shavenderm1</t>
+          <t>jacksontb13</t>
         </is>
       </c>
       <c r="B337" t="b">
@@ -3808,7 +3808,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>kierabuckley8</t>
+          <t>emmakateleee</t>
         </is>
       </c>
       <c r="B338" t="b">
@@ -3818,7 +3818,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>heyheyitsmaddiej</t>
+          <t>giannaang</t>
         </is>
       </c>
       <c r="B339" t="b">
@@ -3828,7 +3828,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>brock_bird_</t>
+          <t>_caroline_bass</t>
         </is>
       </c>
       <c r="B340" t="b">
@@ -3838,7 +3838,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>havenfosterr</t>
+          <t>rett_thompkins</t>
         </is>
       </c>
       <c r="B341" t="b">
@@ -3848,7 +3848,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>farrah_dierk</t>
+          <t>riley.wichmann</t>
         </is>
       </c>
       <c r="B342" t="b">
@@ -3858,7 +3858,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>_nicoleyra</t>
+          <t>romanpmaldonado</t>
         </is>
       </c>
       <c r="B343" t="b">
@@ -3868,7 +3868,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>sophiejanepoore</t>
+          <t>amanda.vaughnn</t>
         </is>
       </c>
       <c r="B344" t="b">
@@ -3878,7 +3878,7 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>cassidyrager</t>
+          <t>_erin.reilly_</t>
         </is>
       </c>
       <c r="B345" t="b">
@@ -3888,7 +3888,7 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>bsisson98</t>
+          <t>melissa_domenech_</t>
         </is>
       </c>
       <c r="B346" t="b">
@@ -3898,7 +3898,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>lauren.polomsky</t>
+          <t>breniyahh_</t>
         </is>
       </c>
       <c r="B347" t="b">
@@ -3908,7 +3908,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ezekielholden_</t>
+          <t>elliekerrins</t>
         </is>
       </c>
       <c r="B348" t="b">
@@ -3918,7 +3918,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>isaacadams_52</t>
+          <t>allie.briana</t>
         </is>
       </c>
       <c r="B349" t="b">
@@ -3928,7 +3928,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>eliz_warren</t>
+          <t>sadiemims_</t>
         </is>
       </c>
       <c r="B350" t="b">
@@ -3938,7 +3938,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>averybaumgartner</t>
+          <t>ava.vaca</t>
         </is>
       </c>
       <c r="B351" t="b">
@@ -3948,7 +3948,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>derek.burke1</t>
+          <t>_.sarahmadden._</t>
         </is>
       </c>
       <c r="B352" t="b">
@@ -3958,7 +3958,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>ben_hiderr</t>
+          <t>katie_simancik</t>
         </is>
       </c>
       <c r="B353" t="b">
@@ -3968,7 +3968,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>elizabeth991599</t>
+          <t>will_mccu</t>
         </is>
       </c>
       <c r="B354" t="b">
@@ -3978,7 +3978,7 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>njm1969_</t>
+          <t>annamarinasegars</t>
         </is>
       </c>
       <c r="B355" t="b">
@@ -3988,7 +3988,7 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ry_burke_</t>
+          <t>bella.sannino</t>
         </is>
       </c>
       <c r="B356" t="b">
@@ -3998,7 +3998,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>cards2colleg3</t>
+          <t>_kam_morris_</t>
         </is>
       </c>
       <c r="B357" t="b">
@@ -4008,7 +4008,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>sammy_rivero</t>
+          <t>brendan__diehl</t>
         </is>
       </c>
       <c r="B358" t="b">
@@ -4018,7 +4018,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>sydriggins</t>
+          <t>ashleycyoungg</t>
         </is>
       </c>
       <c r="B359" t="b">
@@ -4028,7 +4028,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>camalexaaa</t>
+          <t>alyse__king</t>
         </is>
       </c>
       <c r="B360" t="b">
@@ -4038,7 +4038,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>cgemme4821</t>
+          <t>danielvoloshyn</t>
         </is>
       </c>
       <c r="B361" t="b">
@@ -4048,7 +4048,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>hadley_shaw3</t>
+          <t>brennan.s.h</t>
         </is>
       </c>
       <c r="B362" t="b">
@@ -4058,7 +4058,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>bcuff5</t>
+          <t>connoroneil14</t>
         </is>
       </c>
       <c r="B363" t="b">
@@ -4068,7 +4068,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>merrick_richardson_</t>
+          <t>_cam_schmitt_</t>
         </is>
       </c>
       <c r="B364" t="b">
@@ -4078,7 +4078,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>lander.roseann</t>
+          <t>miajohnst0n</t>
         </is>
       </c>
       <c r="B365" t="b">
@@ -4088,7 +4088,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>briangorman23</t>
+          <t>meah.garcia</t>
         </is>
       </c>
       <c r="B366" t="b">
@@ -4098,7 +4098,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>jwellmon18</t>
+          <t>rachel.ruback</t>
         </is>
       </c>
       <c r="B367" t="b">
@@ -4108,7 +4108,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>marcella_hill</t>
+          <t>lizzy.ambriano</t>
         </is>
       </c>
       <c r="B368" t="b">
@@ -4118,7 +4118,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>lisae.843</t>
+          <t>isabelleterracciano</t>
         </is>
       </c>
       <c r="B369" t="b">
@@ -4128,7 +4128,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>chriang14_</t>
+          <t>delaneygingriich</t>
         </is>
       </c>
       <c r="B370" t="b">
@@ -4138,7 +4138,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>annacylkowski</t>
+          <t>aashlyndarby</t>
         </is>
       </c>
       <c r="B371" t="b">
@@ -4148,7 +4148,7 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>emilio.o_c</t>
+          <t>erin.watsonn_</t>
         </is>
       </c>
       <c r="B372" t="b">
@@ -4158,7 +4158,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>wroumillat1</t>
+          <t>ton.y68</t>
         </is>
       </c>
       <c r="B373" t="b">
@@ -4168,7 +4168,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>will_zuhosky3</t>
+          <t>emaleemann</t>
         </is>
       </c>
       <c r="B374" t="b">
@@ -4178,7 +4178,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>btmasters12</t>
+          <t>molly.oconnorrrr</t>
         </is>
       </c>
       <c r="B375" t="b">
@@ -4188,7 +4188,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>chapmanwest3</t>
+          <t>hannahejurgens</t>
         </is>
       </c>
       <c r="B376" t="b">
@@ -4198,7 +4198,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>noahellis05</t>
+          <t>avaa_allen</t>
         </is>
       </c>
       <c r="B377" t="b">
@@ -4208,7 +4208,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>nicolette_1015</t>
+          <t>_keirawoods</t>
         </is>
       </c>
       <c r="B378" t="b">
@@ -4218,7 +4218,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>nate.smith.8</t>
+          <t>flylikemicah</t>
         </is>
       </c>
       <c r="B379" t="b">
@@ -4228,7 +4228,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>truland4</t>
+          <t>hannahmaria1705</t>
         </is>
       </c>
       <c r="B380" t="b">
@@ -4238,7 +4238,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>miaobenson</t>
+          <t>lucasearls</t>
         </is>
       </c>
       <c r="B381" t="b">
@@ -4248,7 +4248,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>nyalaburke</t>
+          <t>libbyhardinnn</t>
         </is>
       </c>
       <c r="B382" t="b">
@@ -4258,7 +4258,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>mattieanajack</t>
+          <t>_nicoleyra</t>
         </is>
       </c>
       <c r="B383" t="b">
@@ -4268,7 +4268,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>charlie_willmann</t>
+          <t>lilyconnelly1</t>
         </is>
       </c>
       <c r="B384" t="b">
@@ -4278,7 +4278,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ansley.reagan</t>
+          <t>lane.galloway_</t>
         </is>
       </c>
       <c r="B385" t="b">
@@ -4288,7 +4288,7 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>hunter_c100</t>
+          <t>bzzz0124</t>
         </is>
       </c>
       <c r="B386" t="b">
@@ -4298,7 +4298,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>ethankendall_04</t>
+          <t>dabney.trimnal</t>
         </is>
       </c>
       <c r="B387" t="b">
@@ -4308,7 +4308,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>weston.tse</t>
+          <t>allie.fylling</t>
         </is>
       </c>
       <c r="B388" t="b">
@@ -4318,7 +4318,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>liam.cheers</t>
+          <t>vajk.boros</t>
         </is>
       </c>
       <c r="B389" t="b">
@@ -4328,7 +4328,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>sommer.unzicker</t>
+          <t>kelley_yates02</t>
         </is>
       </c>
       <c r="B390" t="b">
@@ -4338,7 +4338,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>keenan_the_domino</t>
+          <t>juliakpratt</t>
         </is>
       </c>
       <c r="B391" t="b">
@@ -4348,7 +4348,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>jmkaberry6</t>
+          <t>noah5ohh</t>
         </is>
       </c>
       <c r="B392" t="b">
@@ -4358,7 +4358,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>madd.yt3</t>
+          <t>marissagrippo_</t>
         </is>
       </c>
       <c r="B393" t="b">
@@ -4368,7 +4368,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>reaganquillo</t>
+          <t>caroline.spaulding</t>
         </is>
       </c>
       <c r="B394" t="b">
@@ -4378,7 +4378,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>emmahobbs_</t>
+          <t>snead2.0</t>
         </is>
       </c>
       <c r="B395" t="b">
@@ -4388,7 +4388,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>emilyrianee</t>
+          <t>cooke.gracie</t>
         </is>
       </c>
       <c r="B396" t="b">
@@ -4398,7 +4398,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>savannahnorris.1</t>
+          <t>meg_nolen</t>
         </is>
       </c>
       <c r="B397" t="b">
@@ -4408,7 +4408,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>bricewhitehouse</t>
+          <t>rdavis_04</t>
         </is>
       </c>
       <c r="B398" t="b">
@@ -4418,7 +4418,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>alysa_stigall</t>
+          <t>_audreygrant</t>
         </is>
       </c>
       <c r="B399" t="b">
@@ -4428,7 +4428,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>strayhorn.cltt</t>
+          <t>fi.caputo</t>
         </is>
       </c>
       <c r="B400" t="b">
@@ -4438,7 +4438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>mak31405</t>
+          <t>parkerbeeks</t>
         </is>
       </c>
       <c r="B401" t="b">
@@ -4448,7 +4448,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>_.kendall_hallman._</t>
+          <t>eddie_smore18</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>cashmxney.ag</t>
+          <t>steele_burd11</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>lane_a_</t>
+          <t>maeponeill</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>connor_babb_</t>
+          <t>_nazanin__mohseni_</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>emilys_art4life</t>
+          <t>c_tomlinson18</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>shelby.downer</t>
+          <t>carlislevictoria</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>edrdz121</t>
+          <t>im_big_tim</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>rockett_will</t>
+          <t>katiejohnson._</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>lcastro5813</t>
+          <t>sam_walters29</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>noblerone04</t>
+          <t>ryannvandeveer</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>luluwentz</t>
+          <t>eleanorrand_lines</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>brooklynmlee_</t>
+          <t>addisyn_ball</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>57hodgson</t>
+          <t>brenan.palazzolo</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>diego_bldrss</t>
+          <t>emilycarroca</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>alex.ercolino</t>
+          <t>michela.peluso</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>zaxbyschickenman</t>
+          <t>mackenzie_ratliff</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>c_mac_0712</t>
+          <t>sydneylang</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>mackenzieewoodd</t>
+          <t>haleymaroneyy</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>connoroneil14</t>
+          <t>_rileyelizabethh</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>ellie.runnels</t>
+          <t>skyler.whitman</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>__isaacrollins__</t>
+          <t>michaeldrade_</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>vintageclemsonco</t>
+          <t>amandarklock</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>cyaanky</t>
+          <t>jam3s.moran</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>gaea.adams</t>
+          <t>emilygivester</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>co_nnor6238</t>
+          <t>emmaevanss23</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>sophianorrth</t>
+          <t>joe.dragich</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>bathroom_jesus_69</t>
+          <t>megandohertyy</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>dani.b467</t>
+          <t>abby_mesick</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>kathy.sandlin</t>
+          <t>jonn.yoo</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>_annagraceelizabeth</t>
+          <t>lilmfleming</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ravenjohn52</t>
+          <t>alex.ercolino</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>reagannelson._</t>
+          <t>emerybranham</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>xbella.v</t>
+          <t>kosireed</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>sarahgracekizer</t>
+          <t>lexi.wert</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>scott_grams</t>
+          <t>sarah_anne_19</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>kyleehelinski</t>
+          <t>alexismanoss</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>gabby_montalvo</t>
+          <t>aaudreysmithwick</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>a.lbrown3</t>
+          <t>tylerntiptonmc</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>josiah_macchi</t>
+          <t>liza.__.b</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>cetta_fusco</t>
+          <t>hhcaeagles</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>caleb_mccrary04</t>
+          <t>sarahw2024</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>beck.w.527</t>
+          <t>corinnebradford_</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>jackie.federowicz</t>
+          <t>molli_30</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,320 +4878,10 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>1_lenab</t>
+          <t>ssurato26</t>
         </is>
       </c>
       <c r="B445" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>louise.shiner</t>
-        </is>
-      </c>
-      <c r="B446" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>eliana.c.ponce</t>
-        </is>
-      </c>
-      <c r="B447" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>rhea.lay</t>
-        </is>
-      </c>
-      <c r="B448" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>saraconkling_</t>
-        </is>
-      </c>
-      <c r="B449" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>rhyenp</t>
-        </is>
-      </c>
-      <c r="B450" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>marlene.wgt</t>
-        </is>
-      </c>
-      <c r="B451" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>annagibbsss</t>
-        </is>
-      </c>
-      <c r="B452" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>carlito__jones</t>
-        </is>
-      </c>
-      <c r="B453" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>jusgray77</t>
-        </is>
-      </c>
-      <c r="B454" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>niyyaa.nasha3</t>
-        </is>
-      </c>
-      <c r="B455" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>clemson.sammy</t>
-        </is>
-      </c>
-      <c r="B456" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>aeric_wender</t>
-        </is>
-      </c>
-      <c r="B457" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>brooke.lunderville</t>
-        </is>
-      </c>
-      <c r="B458" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>katie.cooperr</t>
-        </is>
-      </c>
-      <c r="B459" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>priyal11_</t>
-        </is>
-      </c>
-      <c r="B460" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>dorothystein_</t>
-        </is>
-      </c>
-      <c r="B461" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>noellemclane_</t>
-        </is>
-      </c>
-      <c r="B462" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>christian_hausmann11</t>
-        </is>
-      </c>
-      <c r="B463" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>clemsonchristy</t>
-        </is>
-      </c>
-      <c r="B464" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>f.a.anderson87</t>
-        </is>
-      </c>
-      <c r="B465" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>kayla.gutierrez27</t>
-        </is>
-      </c>
-      <c r="B466" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>manuelpilaguano558</t>
-        </is>
-      </c>
-      <c r="B467" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>janimalss</t>
-        </is>
-      </c>
-      <c r="B468" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>shea.dempsey</t>
-        </is>
-      </c>
-      <c r="B469" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>eli.terrell3</t>
-        </is>
-      </c>
-      <c r="B470" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>casey.janee</t>
-        </is>
-      </c>
-      <c r="B471" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>jam3s.moran</t>
-        </is>
-      </c>
-      <c r="B472" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>mason.w.rodgers</t>
-        </is>
-      </c>
-      <c r="B473" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>jose.vs05</t>
-        </is>
-      </c>
-      <c r="B474" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>breniyahh_</t>
-        </is>
-      </c>
-      <c r="B475" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>izzy__864</t>
-        </is>
-      </c>
-      <c r="B476" t="b">
         <v>0</v>
       </c>
     </row>
